--- a/data/Excel Workbooks/Econ2011/AllDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Econ2011/AllDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,9 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="3">
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Econ2011</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="United States Workbook"/>
@@ -1102,7 +1108,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="UK Workbook"/>
@@ -2064,7 +2070,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Japan Workbook"/>
@@ -3024,7 +3030,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="China Workbook"/>
@@ -3655,7 +3661,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="South Africa Workbook"/>
@@ -4286,7 +4292,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Saudi Arabia Workbook"/>
@@ -4917,7 +4923,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Iran Workbook"/>
@@ -5548,7 +5554,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tanzania Workbook"/>
@@ -6179,7 +6185,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Zambia Workbook"/>
@@ -7131,20 +7137,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="8" width="10.875" style="2"/>
-    <col min="9" max="9" width="10.875" style="1"/>
+    <col min="1" max="2" width="11" style="1"/>
+    <col min="3" max="8" width="11" style="2"/>
+    <col min="9" max="9" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="str">
         <f>[1]USData!A1</f>
         <v>Year</v>
@@ -7180,8 +7186,11 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <f>[1]USData!A2</f>
         <v>1980</v>
@@ -7218,8 +7227,11 @@
         <f>[1]USData!I2</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <f>[1]USData!A3</f>
         <v>1981</v>
@@ -7256,8 +7268,11 @@
         <f>[1]USData!I3</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <f>[1]USData!A4</f>
         <v>1982</v>
@@ -7294,8 +7309,11 @@
         <f>[1]USData!I4</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <f>[1]USData!A5</f>
         <v>1983</v>
@@ -7332,8 +7350,11 @@
         <f>[1]USData!I5</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <f>[1]USData!A6</f>
         <v>1984</v>
@@ -7370,8 +7391,11 @@
         <f>[1]USData!I6</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <f>[1]USData!A7</f>
         <v>1985</v>
@@ -7408,8 +7432,11 @@
         <f>[1]USData!I7</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>[1]USData!A8</f>
         <v>1986</v>
@@ -7446,8 +7473,11 @@
         <f>[1]USData!I8</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>[1]USData!A9</f>
         <v>1987</v>
@@ -7484,8 +7514,11 @@
         <f>[1]USData!I9</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>[1]USData!A10</f>
         <v>1988</v>
@@ -7522,8 +7555,11 @@
         <f>[1]USData!I10</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f>[1]USData!A11</f>
         <v>1989</v>
@@ -7560,8 +7596,11 @@
         <f>[1]USData!I11</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f>[1]USData!A12</f>
         <v>1990</v>
@@ -7598,8 +7637,11 @@
         <f>[1]USData!I12</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <f>[1]USData!A13</f>
         <v>1991</v>
@@ -7636,8 +7678,11 @@
         <f>[1]USData!I13</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f>[1]USData!A14</f>
         <v>1992</v>
@@ -7674,8 +7719,11 @@
         <f>[1]USData!I14</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <f>[1]USData!A15</f>
         <v>1993</v>
@@ -7712,8 +7760,11 @@
         <f>[1]USData!I15</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <f>[1]USData!A16</f>
         <v>1994</v>
@@ -7750,8 +7801,11 @@
         <f>[1]USData!I16</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <f>[1]USData!A17</f>
         <v>1995</v>
@@ -7788,8 +7842,11 @@
         <f>[1]USData!I17</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <f>[1]USData!A18</f>
         <v>1996</v>
@@ -7826,8 +7883,11 @@
         <f>[1]USData!I18</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <f>[1]USData!A19</f>
         <v>1997</v>
@@ -7864,8 +7924,11 @@
         <f>[1]USData!I19</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <f>[1]USData!A20</f>
         <v>1998</v>
@@ -7902,8 +7965,11 @@
         <f>[1]USData!I20</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <f>[1]USData!A21</f>
         <v>1999</v>
@@ -7940,8 +8006,11 @@
         <f>[1]USData!I21</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <f>[1]USData!A22</f>
         <v>2000</v>
@@ -7978,8 +8047,11 @@
         <f>[1]USData!I22</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <f>[1]USData!A23</f>
         <v>2001</v>
@@ -8016,8 +8088,11 @@
         <f>[1]USData!I23</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <f>[1]USData!A24</f>
         <v>2002</v>
@@ -8054,8 +8129,11 @@
         <f>[1]USData!I24</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <f>[1]USData!A25</f>
         <v>2003</v>
@@ -8092,8 +8170,11 @@
         <f>[1]USData!I25</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <f>[1]USData!A26</f>
         <v>2004</v>
@@ -8130,8 +8211,11 @@
         <f>[1]USData!I26</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <f>[1]USData!A27</f>
         <v>2005</v>
@@ -8168,8 +8252,11 @@
         <f>[1]USData!I27</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <f>[1]USData!A28</f>
         <v>2006</v>
@@ -8206,8 +8293,11 @@
         <f>[1]USData!I28</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <f>[1]USData!A29</f>
         <v>2007</v>
@@ -8244,8 +8334,11 @@
         <f>[1]USData!I29</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <f>[1]USData!A30</f>
         <v>2008</v>
@@ -8282,8 +8375,11 @@
         <f>[1]USData!I30</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <f>[1]USData!A31</f>
         <v>2009</v>
@@ -8320,8 +8416,11 @@
         <f>[1]USData!I31</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <f>[1]USData!A32</f>
         <v>2010</v>
@@ -8358,8 +8457,11 @@
         <f>[1]USData!I32</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <f>[1]USData!A33</f>
         <v>2011</v>
@@ -8396,8 +8498,11 @@
         <f>[1]USData!I33</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <f>[2]UKData!A2</f>
         <v>1980</v>
@@ -8434,8 +8539,11 @@
         <f>[2]UKData!I2</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <f>[2]UKData!A3</f>
         <v>1981</v>
@@ -8472,8 +8580,11 @@
         <f>[2]UKData!I3</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <f>[2]UKData!A4</f>
         <v>1982</v>
@@ -8510,8 +8621,11 @@
         <f>[2]UKData!I4</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <f>[2]UKData!A5</f>
         <v>1983</v>
@@ -8548,8 +8662,11 @@
         <f>[2]UKData!I5</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <f>[2]UKData!A6</f>
         <v>1984</v>
@@ -8586,8 +8703,11 @@
         <f>[2]UKData!I6</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <f>[2]UKData!A7</f>
         <v>1985</v>
@@ -8624,8 +8744,11 @@
         <f>[2]UKData!I7</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <f>[2]UKData!A8</f>
         <v>1986</v>
@@ -8662,8 +8785,11 @@
         <f>[2]UKData!I8</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <f>[2]UKData!A9</f>
         <v>1987</v>
@@ -8700,8 +8826,11 @@
         <f>[2]UKData!I9</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <f>[2]UKData!A10</f>
         <v>1988</v>
@@ -8738,8 +8867,11 @@
         <f>[2]UKData!I10</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <f>[2]UKData!A11</f>
         <v>1989</v>
@@ -8776,8 +8908,11 @@
         <f>[2]UKData!I11</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <f>[2]UKData!A12</f>
         <v>1990</v>
@@ -8814,8 +8949,11 @@
         <f>[2]UKData!I12</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <f>[2]UKData!A13</f>
         <v>1991</v>
@@ -8852,8 +8990,11 @@
         <f>[2]UKData!I13</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <f>[2]UKData!A14</f>
         <v>1992</v>
@@ -8890,8 +9031,11 @@
         <f>[2]UKData!I14</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <f>[2]UKData!A15</f>
         <v>1993</v>
@@ -8928,8 +9072,11 @@
         <f>[2]UKData!I15</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <f>[2]UKData!A16</f>
         <v>1994</v>
@@ -8966,8 +9113,11 @@
         <f>[2]UKData!I16</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <f>[2]UKData!A17</f>
         <v>1995</v>
@@ -9004,8 +9154,11 @@
         <f>[2]UKData!I17</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <f>[2]UKData!A18</f>
         <v>1996</v>
@@ -9042,8 +9195,11 @@
         <f>[2]UKData!I18</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <f>[2]UKData!A19</f>
         <v>1997</v>
@@ -9080,8 +9236,11 @@
         <f>[2]UKData!I19</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <f>[2]UKData!A20</f>
         <v>1998</v>
@@ -9118,8 +9277,11 @@
         <f>[2]UKData!I20</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <f>[2]UKData!A21</f>
         <v>1999</v>
@@ -9156,8 +9318,11 @@
         <f>[2]UKData!I21</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <f>[2]UKData!A22</f>
         <v>2000</v>
@@ -9194,8 +9359,11 @@
         <f>[2]UKData!I22</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <f>[2]UKData!A23</f>
         <v>2001</v>
@@ -9232,8 +9400,11 @@
         <f>[2]UKData!I23</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <f>[2]UKData!A24</f>
         <v>2002</v>
@@ -9270,8 +9441,11 @@
         <f>[2]UKData!I24</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <f>[2]UKData!A25</f>
         <v>2003</v>
@@ -9308,8 +9482,11 @@
         <f>[2]UKData!I25</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <f>[2]UKData!A26</f>
         <v>2004</v>
@@ -9346,8 +9523,11 @@
         <f>[2]UKData!I26</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <f>[2]UKData!A27</f>
         <v>2005</v>
@@ -9384,8 +9564,11 @@
         <f>[2]UKData!I27</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <f>[2]UKData!A28</f>
         <v>2006</v>
@@ -9422,8 +9605,11 @@
         <f>[2]UKData!I28</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <f>[2]UKData!A29</f>
         <v>2007</v>
@@ -9460,8 +9646,11 @@
         <f>[2]UKData!I29</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <f>[2]UKData!A30</f>
         <v>2008</v>
@@ -9498,8 +9687,11 @@
         <f>[2]UKData!I30</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <f>[2]UKData!A31</f>
         <v>2009</v>
@@ -9536,8 +9728,11 @@
         <f>[2]UKData!I31</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <f>[2]UKData!A32</f>
         <v>2010</v>
@@ -9574,8 +9769,11 @@
         <f>[2]UKData!I32</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <f>[2]UKData!A33</f>
         <v>2011</v>
@@ -9612,8 +9810,11 @@
         <f>[2]UKData!I33</f>
         <v>UK</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <f>[3]JPData!A2</f>
         <v>1980</v>
@@ -9650,8 +9851,11 @@
         <f>[3]JPData!I2</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <f>[3]JPData!A3</f>
         <v>1981</v>
@@ -9688,8 +9892,11 @@
         <f>[3]JPData!I3</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <f>[3]JPData!A4</f>
         <v>1982</v>
@@ -9726,8 +9933,11 @@
         <f>[3]JPData!I4</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <f>[3]JPData!A5</f>
         <v>1983</v>
@@ -9764,8 +9974,11 @@
         <f>[3]JPData!I5</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <f>[3]JPData!A6</f>
         <v>1984</v>
@@ -9802,8 +10015,11 @@
         <f>[3]JPData!I6</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <f>[3]JPData!A7</f>
         <v>1985</v>
@@ -9840,8 +10056,11 @@
         <f>[3]JPData!I7</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <f>[3]JPData!A8</f>
         <v>1986</v>
@@ -9878,8 +10097,11 @@
         <f>[3]JPData!I8</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <f>[3]JPData!A9</f>
         <v>1987</v>
@@ -9916,8 +10138,11 @@
         <f>[3]JPData!I9</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <f>[3]JPData!A10</f>
         <v>1988</v>
@@ -9954,8 +10179,11 @@
         <f>[3]JPData!I10</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <f>[3]JPData!A11</f>
         <v>1989</v>
@@ -9992,8 +10220,11 @@
         <f>[3]JPData!I11</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <f>[3]JPData!A12</f>
         <v>1990</v>
@@ -10030,8 +10261,11 @@
         <f>[3]JPData!I12</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <f>[3]JPData!A13</f>
         <v>1991</v>
@@ -10068,8 +10302,11 @@
         <f>[3]JPData!I13</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <f>[3]JPData!A14</f>
         <v>1992</v>
@@ -10106,8 +10343,11 @@
         <f>[3]JPData!I14</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <f>[3]JPData!A15</f>
         <v>1993</v>
@@ -10144,8 +10384,11 @@
         <f>[3]JPData!I15</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <f>[3]JPData!A16</f>
         <v>1994</v>
@@ -10182,8 +10425,11 @@
         <f>[3]JPData!I16</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <f>[3]JPData!A17</f>
         <v>1995</v>
@@ -10220,8 +10466,11 @@
         <f>[3]JPData!I17</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <f>[3]JPData!A18</f>
         <v>1996</v>
@@ -10258,8 +10507,11 @@
         <f>[3]JPData!I18</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <f>[3]JPData!A19</f>
         <v>1997</v>
@@ -10296,8 +10548,11 @@
         <f>[3]JPData!I19</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <f>[3]JPData!A20</f>
         <v>1998</v>
@@ -10334,8 +10589,11 @@
         <f>[3]JPData!I20</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <f>[3]JPData!A21</f>
         <v>1999</v>
@@ -10372,8 +10630,11 @@
         <f>[3]JPData!I21</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <f>[3]JPData!A22</f>
         <v>2000</v>
@@ -10410,8 +10671,11 @@
         <f>[3]JPData!I22</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <f>[3]JPData!A23</f>
         <v>2001</v>
@@ -10448,8 +10712,11 @@
         <f>[3]JPData!I23</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <f>[3]JPData!A24</f>
         <v>2002</v>
@@ -10486,8 +10753,11 @@
         <f>[3]JPData!I24</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <f>[3]JPData!A25</f>
         <v>2003</v>
@@ -10524,8 +10794,11 @@
         <f>[3]JPData!I25</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <f>[3]JPData!A26</f>
         <v>2004</v>
@@ -10562,8 +10835,11 @@
         <f>[3]JPData!I26</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <f>[3]JPData!A27</f>
         <v>2005</v>
@@ -10600,8 +10876,11 @@
         <f>[3]JPData!I27</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <f>[3]JPData!A28</f>
         <v>2006</v>
@@ -10638,8 +10917,11 @@
         <f>[3]JPData!I28</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <f>[3]JPData!A29</f>
         <v>2007</v>
@@ -10676,8 +10958,11 @@
         <f>[3]JPData!I29</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <f>[3]JPData!A30</f>
         <v>2008</v>
@@ -10714,8 +10999,11 @@
         <f>[3]JPData!I30</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <f>[3]JPData!A31</f>
         <v>2009</v>
@@ -10752,8 +11040,11 @@
         <f>[3]JPData!I31</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <f>[3]JPData!A32</f>
         <v>2010</v>
@@ -10790,8 +11081,11 @@
         <f>[3]JPData!I32</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <f>[3]JPData!A33</f>
         <v>2011</v>
@@ -10828,8 +11122,11 @@
         <f>[3]JPData!I33</f>
         <v>JP</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <f>[4]CNData!A2</f>
         <v>1991</v>
@@ -10866,8 +11163,11 @@
         <f>[4]CNData!I2</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <f>[4]CNData!A3</f>
         <v>1992</v>
@@ -10904,8 +11204,11 @@
         <f>[4]CNData!I3</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <f>[4]CNData!A4</f>
         <v>1993</v>
@@ -10942,8 +11245,11 @@
         <f>[4]CNData!I4</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <f>[4]CNData!A5</f>
         <v>1994</v>
@@ -10980,8 +11286,11 @@
         <f>[4]CNData!I5</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <f>[4]CNData!A6</f>
         <v>1995</v>
@@ -11018,8 +11327,11 @@
         <f>[4]CNData!I6</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <f>[4]CNData!A7</f>
         <v>1996</v>
@@ -11056,8 +11368,11 @@
         <f>[4]CNData!I7</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <f>[4]CNData!A8</f>
         <v>1997</v>
@@ -11094,8 +11409,11 @@
         <f>[4]CNData!I8</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <f>[4]CNData!A9</f>
         <v>1998</v>
@@ -11132,8 +11450,11 @@
         <f>[4]CNData!I9</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <f>[4]CNData!A10</f>
         <v>1999</v>
@@ -11170,8 +11491,11 @@
         <f>[4]CNData!I10</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <f>[4]CNData!A11</f>
         <v>2000</v>
@@ -11208,8 +11532,11 @@
         <f>[4]CNData!I11</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <f>[4]CNData!A12</f>
         <v>2001</v>
@@ -11246,8 +11573,11 @@
         <f>[4]CNData!I12</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <f>[4]CNData!A13</f>
         <v>2002</v>
@@ -11284,8 +11614,11 @@
         <f>[4]CNData!I13</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <f>[4]CNData!A14</f>
         <v>2003</v>
@@ -11322,8 +11655,11 @@
         <f>[4]CNData!I14</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <f>[4]CNData!A15</f>
         <v>2004</v>
@@ -11360,8 +11696,11 @@
         <f>[4]CNData!I15</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <f>[4]CNData!A16</f>
         <v>2005</v>
@@ -11398,8 +11737,11 @@
         <f>[4]CNData!I16</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <f>[4]CNData!A17</f>
         <v>2006</v>
@@ -11436,8 +11778,11 @@
         <f>[4]CNData!I17</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <f>[4]CNData!A18</f>
         <v>2007</v>
@@ -11474,8 +11819,11 @@
         <f>[4]CNData!I18</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <f>[4]CNData!A19</f>
         <v>2008</v>
@@ -11512,8 +11860,11 @@
         <f>[4]CNData!I19</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <f>[4]CNData!A20</f>
         <v>2009</v>
@@ -11550,8 +11901,11 @@
         <f>[4]CNData!I20</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <f>[4]CNData!A21</f>
         <v>2010</v>
@@ -11588,8 +11942,11 @@
         <f>[4]CNData!I21</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <f>[4]CNData!A22</f>
         <v>2011</v>
@@ -11626,8 +11983,11 @@
         <f>[4]CNData!I22</f>
         <v>CN</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <f>[5]ZAData!A2</f>
         <v>1991</v>
@@ -11664,8 +12024,11 @@
         <f>[5]ZAData!I2</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <f>[5]ZAData!A3</f>
         <v>1992</v>
@@ -11702,8 +12065,11 @@
         <f>[5]ZAData!I3</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <f>[5]ZAData!A4</f>
         <v>1993</v>
@@ -11740,8 +12106,11 @@
         <f>[5]ZAData!I4</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <f>[5]ZAData!A5</f>
         <v>1994</v>
@@ -11778,8 +12147,11 @@
         <f>[5]ZAData!I5</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <f>[5]ZAData!A6</f>
         <v>1995</v>
@@ -11816,8 +12188,11 @@
         <f>[5]ZAData!I6</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <f>[5]ZAData!A7</f>
         <v>1996</v>
@@ -11854,8 +12229,11 @@
         <f>[5]ZAData!I7</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <f>[5]ZAData!A8</f>
         <v>1997</v>
@@ -11892,8 +12270,11 @@
         <f>[5]ZAData!I8</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <f>[5]ZAData!A9</f>
         <v>1998</v>
@@ -11930,8 +12311,11 @@
         <f>[5]ZAData!I9</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <f>[5]ZAData!A10</f>
         <v>1999</v>
@@ -11968,8 +12352,11 @@
         <f>[5]ZAData!I10</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <f>[5]ZAData!A11</f>
         <v>2000</v>
@@ -12006,8 +12393,11 @@
         <f>[5]ZAData!I11</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <f>[5]ZAData!A12</f>
         <v>2001</v>
@@ -12044,8 +12434,11 @@
         <f>[5]ZAData!I12</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <f>[5]ZAData!A13</f>
         <v>2002</v>
@@ -12082,8 +12475,11 @@
         <f>[5]ZAData!I13</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <f>[5]ZAData!A14</f>
         <v>2003</v>
@@ -12120,8 +12516,11 @@
         <f>[5]ZAData!I14</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <f>[5]ZAData!A15</f>
         <v>2004</v>
@@ -12158,8 +12557,11 @@
         <f>[5]ZAData!I15</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <f>[5]ZAData!A16</f>
         <v>2005</v>
@@ -12196,8 +12598,11 @@
         <f>[5]ZAData!I16</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <f>[5]ZAData!A17</f>
         <v>2006</v>
@@ -12234,8 +12639,11 @@
         <f>[5]ZAData!I17</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <f>[5]ZAData!A18</f>
         <v>2007</v>
@@ -12272,8 +12680,11 @@
         <f>[5]ZAData!I18</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <f>[5]ZAData!A19</f>
         <v>2008</v>
@@ -12310,8 +12721,11 @@
         <f>[5]ZAData!I19</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <f>[5]ZAData!A20</f>
         <v>2009</v>
@@ -12348,8 +12762,11 @@
         <f>[5]ZAData!I20</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <f>[5]ZAData!A21</f>
         <v>2010</v>
@@ -12386,8 +12803,11 @@
         <f>[5]ZAData!I21</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <f>[5]ZAData!A22</f>
         <v>2011</v>
@@ -12424,8 +12844,11 @@
         <f>[5]ZAData!I22</f>
         <v>ZA</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <f>[6]SAData!A2</f>
         <v>1991</v>
@@ -12462,8 +12885,11 @@
         <f>[6]SAData!I2</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <f>[6]SAData!A3</f>
         <v>1992</v>
@@ -12500,8 +12926,11 @@
         <f>[6]SAData!I3</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <f>[6]SAData!A4</f>
         <v>1993</v>
@@ -12538,8 +12967,11 @@
         <f>[6]SAData!I4</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <f>[6]SAData!A5</f>
         <v>1994</v>
@@ -12576,8 +13008,11 @@
         <f>[6]SAData!I5</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <f>[6]SAData!A6</f>
         <v>1995</v>
@@ -12614,8 +13049,11 @@
         <f>[6]SAData!I6</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <f>[6]SAData!A7</f>
         <v>1996</v>
@@ -12652,8 +13090,11 @@
         <f>[6]SAData!I7</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <f>[6]SAData!A8</f>
         <v>1997</v>
@@ -12690,8 +13131,11 @@
         <f>[6]SAData!I8</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <f>[6]SAData!A9</f>
         <v>1998</v>
@@ -12728,8 +13172,11 @@
         <f>[6]SAData!I9</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <f>[6]SAData!A10</f>
         <v>1999</v>
@@ -12766,8 +13213,11 @@
         <f>[6]SAData!I10</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <f>[6]SAData!A11</f>
         <v>2000</v>
@@ -12804,8 +13254,11 @@
         <f>[6]SAData!I11</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <f>[6]SAData!A12</f>
         <v>2001</v>
@@ -12842,8 +13295,11 @@
         <f>[6]SAData!I12</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <f>[6]SAData!A13</f>
         <v>2002</v>
@@ -12880,8 +13336,11 @@
         <f>[6]SAData!I13</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <f>[6]SAData!A14</f>
         <v>2003</v>
@@ -12918,8 +13377,11 @@
         <f>[6]SAData!I14</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <f>[6]SAData!A15</f>
         <v>2004</v>
@@ -12956,8 +13418,11 @@
         <f>[6]SAData!I15</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <f>[6]SAData!A16</f>
         <v>2005</v>
@@ -12994,8 +13459,11 @@
         <f>[6]SAData!I16</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <f>[6]SAData!A17</f>
         <v>2006</v>
@@ -13032,8 +13500,11 @@
         <f>[6]SAData!I17</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <f>[6]SAData!A18</f>
         <v>2007</v>
@@ -13070,8 +13541,11 @@
         <f>[6]SAData!I18</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <f>[6]SAData!A19</f>
         <v>2008</v>
@@ -13108,8 +13582,11 @@
         <f>[6]SAData!I19</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <f>[6]SAData!A20</f>
         <v>2009</v>
@@ -13146,8 +13623,11 @@
         <f>[6]SAData!I20</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <f>[6]SAData!A21</f>
         <v>2010</v>
@@ -13184,8 +13664,11 @@
         <f>[6]SAData!I21</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <f>[6]SAData!A22</f>
         <v>2011</v>
@@ -13222,8 +13705,11 @@
         <f>[6]SAData!I22</f>
         <v>SA</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <f>[7]IRData!A2</f>
         <v>1991</v>
@@ -13260,8 +13746,11 @@
         <f>[7]IRData!I2</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <f>[7]IRData!A3</f>
         <v>1992</v>
@@ -13298,8 +13787,11 @@
         <f>[7]IRData!I3</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <f>[7]IRData!A4</f>
         <v>1993</v>
@@ -13336,8 +13828,11 @@
         <f>[7]IRData!I4</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <f>[7]IRData!A5</f>
         <v>1994</v>
@@ -13374,8 +13869,11 @@
         <f>[7]IRData!I5</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <f>[7]IRData!A6</f>
         <v>1995</v>
@@ -13412,8 +13910,11 @@
         <f>[7]IRData!I6</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <f>[7]IRData!A7</f>
         <v>1996</v>
@@ -13450,8 +13951,11 @@
         <f>[7]IRData!I7</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <f>[7]IRData!A8</f>
         <v>1997</v>
@@ -13488,8 +13992,11 @@
         <f>[7]IRData!I8</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <f>[7]IRData!A9</f>
         <v>1998</v>
@@ -13526,8 +14033,11 @@
         <f>[7]IRData!I9</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <f>[7]IRData!A10</f>
         <v>1999</v>
@@ -13564,8 +14074,11 @@
         <f>[7]IRData!I10</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <f>[7]IRData!A11</f>
         <v>2000</v>
@@ -13602,8 +14115,11 @@
         <f>[7]IRData!I11</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <f>[7]IRData!A12</f>
         <v>2001</v>
@@ -13640,8 +14156,11 @@
         <f>[7]IRData!I12</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <f>[7]IRData!A13</f>
         <v>2002</v>
@@ -13678,8 +14197,11 @@
         <f>[7]IRData!I13</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <f>[7]IRData!A14</f>
         <v>2003</v>
@@ -13716,8 +14238,11 @@
         <f>[7]IRData!I14</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <f>[7]IRData!A15</f>
         <v>2004</v>
@@ -13754,8 +14279,11 @@
         <f>[7]IRData!I15</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <f>[7]IRData!A16</f>
         <v>2005</v>
@@ -13792,8 +14320,11 @@
         <f>[7]IRData!I16</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <f>[7]IRData!A17</f>
         <v>2006</v>
@@ -13830,8 +14361,11 @@
         <f>[7]IRData!I17</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <f>[7]IRData!A18</f>
         <v>2007</v>
@@ -13868,8 +14402,11 @@
         <f>[7]IRData!I18</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <f>[7]IRData!A19</f>
         <v>2008</v>
@@ -13906,8 +14443,11 @@
         <f>[7]IRData!I19</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <f>[7]IRData!A20</f>
         <v>2009</v>
@@ -13944,8 +14484,11 @@
         <f>[7]IRData!I20</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <f>[7]IRData!A21</f>
         <v>2010</v>
@@ -13982,8 +14525,11 @@
         <f>[7]IRData!I21</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1">
         <f>[7]IRData!A22</f>
         <v>2011</v>
@@ -14020,8 +14566,11 @@
         <f>[7]IRData!I22</f>
         <v>IR</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1">
         <f>[8]TZData!A2</f>
         <v>1991</v>
@@ -14058,8 +14607,11 @@
         <f>[8]TZData!I2</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1">
         <f>[8]TZData!A3</f>
         <v>1992</v>
@@ -14096,8 +14648,11 @@
         <f>[8]TZData!I3</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1">
         <f>[8]TZData!A4</f>
         <v>1993</v>
@@ -14134,8 +14689,11 @@
         <f>[8]TZData!I4</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1">
         <f>[8]TZData!A5</f>
         <v>1994</v>
@@ -14172,8 +14730,11 @@
         <f>[8]TZData!I5</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1">
         <f>[8]TZData!A6</f>
         <v>1995</v>
@@ -14210,8 +14771,11 @@
         <f>[8]TZData!I6</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1">
         <f>[8]TZData!A7</f>
         <v>1996</v>
@@ -14248,8 +14812,11 @@
         <f>[8]TZData!I7</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1">
         <f>[8]TZData!A8</f>
         <v>1997</v>
@@ -14286,8 +14853,11 @@
         <f>[8]TZData!I8</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1">
         <f>[8]TZData!A9</f>
         <v>1998</v>
@@ -14324,8 +14894,11 @@
         <f>[8]TZData!I9</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1">
         <f>[8]TZData!A10</f>
         <v>1999</v>
@@ -14362,8 +14935,11 @@
         <f>[8]TZData!I10</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1">
         <f>[8]TZData!A11</f>
         <v>2000</v>
@@ -14400,8 +14976,11 @@
         <f>[8]TZData!I11</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1">
         <f>[8]TZData!A12</f>
         <v>2001</v>
@@ -14438,8 +15017,11 @@
         <f>[8]TZData!I12</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1">
         <f>[8]TZData!A13</f>
         <v>2002</v>
@@ -14476,8 +15058,11 @@
         <f>[8]TZData!I13</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1">
         <f>[8]TZData!A14</f>
         <v>2003</v>
@@ -14514,8 +15099,11 @@
         <f>[8]TZData!I14</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1">
         <f>[8]TZData!A15</f>
         <v>2004</v>
@@ -14552,8 +15140,11 @@
         <f>[8]TZData!I15</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1">
         <f>[8]TZData!A16</f>
         <v>2005</v>
@@ -14590,8 +15181,11 @@
         <f>[8]TZData!I16</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1">
         <f>[8]TZData!A17</f>
         <v>2006</v>
@@ -14628,8 +15222,11 @@
         <f>[8]TZData!I17</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1">
         <f>[8]TZData!A18</f>
         <v>2007</v>
@@ -14666,8 +15263,11 @@
         <f>[8]TZData!I18</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1">
         <f>[8]TZData!A19</f>
         <v>2008</v>
@@ -14704,8 +15304,11 @@
         <f>[8]TZData!I19</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1">
         <f>[8]TZData!A20</f>
         <v>2009</v>
@@ -14742,8 +15345,11 @@
         <f>[8]TZData!I20</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1">
         <f>[8]TZData!A21</f>
         <v>2010</v>
@@ -14780,8 +15386,11 @@
         <f>[8]TZData!I21</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1">
         <f>[8]TZData!A22</f>
         <v>2011</v>
@@ -14818,8 +15427,11 @@
         <f>[8]TZData!I22</f>
         <v>TZ</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1">
         <f>[9]ZMData!A2</f>
         <v>1991</v>
@@ -14856,8 +15468,11 @@
         <f>[9]ZMData!I2</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1">
         <f>[9]ZMData!A3</f>
         <v>1992</v>
@@ -14894,8 +15509,11 @@
         <f>[9]ZMData!I3</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1">
         <f>[9]ZMData!A4</f>
         <v>1993</v>
@@ -14932,8 +15550,11 @@
         <f>[9]ZMData!I4</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1">
         <f>[9]ZMData!A5</f>
         <v>1994</v>
@@ -14970,8 +15591,11 @@
         <f>[9]ZMData!I5</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1">
         <f>[9]ZMData!A6</f>
         <v>1995</v>
@@ -15008,8 +15632,11 @@
         <f>[9]ZMData!I6</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1">
         <f>[9]ZMData!A7</f>
         <v>1996</v>
@@ -15046,8 +15673,11 @@
         <f>[9]ZMData!I7</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1">
         <f>[9]ZMData!A8</f>
         <v>1997</v>
@@ -15084,8 +15714,11 @@
         <f>[9]ZMData!I8</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1">
         <f>[9]ZMData!A9</f>
         <v>1998</v>
@@ -15122,8 +15755,11 @@
         <f>[9]ZMData!I9</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1">
         <f>[9]ZMData!A10</f>
         <v>1999</v>
@@ -15160,8 +15796,11 @@
         <f>[9]ZMData!I10</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1">
         <f>[9]ZMData!A11</f>
         <v>2000</v>
@@ -15198,8 +15837,11 @@
         <f>[9]ZMData!I11</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1">
         <f>[9]ZMData!A12</f>
         <v>2001</v>
@@ -15236,8 +15878,11 @@
         <f>[9]ZMData!I12</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1">
         <f>[9]ZMData!A13</f>
         <v>2002</v>
@@ -15274,8 +15919,11 @@
         <f>[9]ZMData!I13</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1">
         <f>[9]ZMData!A14</f>
         <v>2003</v>
@@ -15312,8 +15960,11 @@
         <f>[9]ZMData!I14</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1">
         <f>[9]ZMData!A15</f>
         <v>2004</v>
@@ -15350,8 +16001,11 @@
         <f>[9]ZMData!I15</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1">
         <f>[9]ZMData!A16</f>
         <v>2005</v>
@@ -15388,8 +16042,11 @@
         <f>[9]ZMData!I16</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1">
         <f>[9]ZMData!A17</f>
         <v>2006</v>
@@ -15426,8 +16083,11 @@
         <f>[9]ZMData!I17</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1">
         <f>[9]ZMData!A18</f>
         <v>2007</v>
@@ -15464,8 +16124,11 @@
         <f>[9]ZMData!I18</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1">
         <f>[9]ZMData!A19</f>
         <v>2008</v>
@@ -15502,8 +16165,11 @@
         <f>[9]ZMData!I19</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1">
         <f>[9]ZMData!A20</f>
         <v>2009</v>
@@ -15540,8 +16206,11 @@
         <f>[9]ZMData!I20</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1">
         <f>[9]ZMData!A21</f>
         <v>2010</v>
@@ -15578,8 +16247,11 @@
         <f>[9]ZMData!I21</f>
         <v>ZM</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1">
         <f>[9]ZMData!A22</f>
         <v>2011</v>
@@ -15615,6 +16287,9 @@
       <c r="I223" s="1" t="str">
         <f>[9]ZMData!I22</f>
         <v>ZM</v>
+      </c>
+      <c r="J223" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Excel Workbooks/Econ2011/AllDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Econ2011/AllDataWorkbook.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="5">
   <si>
     <t>Country</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Econ2011</t>
+  </si>
+  <si>
+    <t>iL</t>
+  </si>
+  <si>
+    <t>iK</t>
   </si>
 </sst>
 </file>
@@ -147,12 +153,6 @@
           </cell>
           <cell r="C1" t="str">
             <v>iGDP</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>iLabor</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>iCapStk</v>
           </cell>
           <cell r="F1" t="str">
             <v>iQ</v>
@@ -7139,8 +7139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J223"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7163,13 +7163,11 @@
         <f>[1]USData!C1</f>
         <v>iGDP</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <f>[1]USData!D1</f>
-        <v>iLabor</v>
-      </c>
-      <c r="E1" s="2" t="str">
-        <f>[1]USData!E1</f>
-        <v>iCapStk</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>[1]USData!F1</f>

--- a/data/Excel Workbooks/Econ2011/AllDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Econ2011/AllDataWorkbook.xlsx
@@ -35,9 +35,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>Econ2011</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>iK</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -96,8 +96,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -110,9 +112,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7140,7 +7144,7 @@
   <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7167,7 +7171,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>[1]USData!F1</f>
@@ -7185,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7202,11 +7206,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
+        <f>[1]USData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <f>[1]USData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <f>[1]USData!E2</f>
         <v>1</v>
       </c>
       <c r="F2" s="2">
@@ -7226,7 +7230,7 @@
         <v>US</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7243,12 +7247,12 @@
         <v>1.0253857789928822</v>
       </c>
       <c r="D3" s="2">
+        <f>[1]USData!E3</f>
+        <v>1.0322020091577557</v>
+      </c>
+      <c r="E3" s="2">
         <f>[1]USData!D3</f>
         <v>1.0020977348810922</v>
-      </c>
-      <c r="E3" s="2">
-        <f>[1]USData!E3</f>
-        <v>1.0322020091577557</v>
       </c>
       <c r="F3" s="2">
         <f>[1]USData!F3</f>
@@ -7267,7 +7271,7 @@
         <v>US</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7284,12 +7288,12 @@
         <v>1.0054765404376946</v>
       </c>
       <c r="D4" s="2">
+        <f>[1]USData!E4</f>
+        <v>1.0551144855460044</v>
+      </c>
+      <c r="E4" s="2">
         <f>[1]USData!D4</f>
         <v>0.98717447067518804</v>
-      </c>
-      <c r="E4" s="2">
-        <f>[1]USData!E4</f>
-        <v>1.0551144855460044</v>
       </c>
       <c r="F4" s="2">
         <f>[1]USData!F4</f>
@@ -7308,7 +7312,7 @@
         <v>US</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7325,12 +7329,12 @@
         <v>1.0509001152730342</v>
       </c>
       <c r="D5" s="2">
+        <f>[1]USData!E5</f>
+        <v>1.0829322225440718</v>
+      </c>
+      <c r="E5" s="2">
         <f>[1]USData!D5</f>
         <v>1.0048910916916656</v>
-      </c>
-      <c r="E5" s="2">
-        <f>[1]USData!E5</f>
-        <v>1.0829322225440718</v>
       </c>
       <c r="F5" s="2">
         <f>[1]USData!F5</f>
@@ -7349,7 +7353,7 @@
         <v>US</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7366,12 +7370,12 @@
         <v>1.1264232363011497</v>
       </c>
       <c r="D6" s="2">
+        <f>[1]USData!E6</f>
+        <v>1.1252643360219112</v>
+      </c>
+      <c r="E6" s="2">
         <f>[1]USData!D6</f>
         <v>1.0555845398026173</v>
-      </c>
-      <c r="E6" s="2">
-        <f>[1]USData!E6</f>
-        <v>1.1252643360219112</v>
       </c>
       <c r="F6" s="2">
         <f>[1]USData!F6</f>
@@ -7390,7 +7394,7 @@
         <v>US</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7407,12 +7411,12 @@
         <v>1.1730252529364626</v>
       </c>
       <c r="D7" s="2">
+        <f>[1]USData!E7</f>
+        <v>1.1717601413237269</v>
+      </c>
+      <c r="E7" s="2">
         <f>[1]USData!D7</f>
         <v>1.079724794574149</v>
-      </c>
-      <c r="E7" s="2">
-        <f>[1]USData!E7</f>
-        <v>1.1717601413237269</v>
       </c>
       <c r="F7" s="2">
         <f>[1]USData!F7</f>
@@ -7431,7 +7435,7 @@
         <v>US</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7448,12 +7452,12 @@
         <v>1.2136664966853645</v>
       </c>
       <c r="D8" s="2">
+        <f>[1]USData!E8</f>
+        <v>1.2171977865810455</v>
+      </c>
+      <c r="E8" s="2">
         <f>[1]USData!D8</f>
         <v>1.0923709838702664</v>
-      </c>
-      <c r="E8" s="2">
-        <f>[1]USData!E8</f>
-        <v>1.2171977865810455</v>
       </c>
       <c r="F8" s="2">
         <f>[1]USData!F8</f>
@@ -7472,7 +7476,7 @@
         <v>US</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7489,12 +7493,12 @@
         <v>1.2524993679266709</v>
       </c>
       <c r="D9" s="2">
+        <f>[1]USData!E9</f>
+        <v>1.2608159840507633</v>
+      </c>
+      <c r="E9" s="2">
         <f>[1]USData!D9</f>
         <v>1.1219783922438156</v>
-      </c>
-      <c r="E9" s="2">
-        <f>[1]USData!E9</f>
-        <v>1.2608159840507633</v>
       </c>
       <c r="F9" s="2">
         <f>[1]USData!F9</f>
@@ -7513,7 +7517,7 @@
         <v>US</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7530,12 +7534,12 @@
         <v>1.3039822762353284</v>
       </c>
       <c r="D10" s="2">
+        <f>[1]USData!E10</f>
+        <v>1.305396194649227</v>
+      </c>
+      <c r="E10" s="2">
         <f>[1]USData!D10</f>
         <v>1.1554660666927525</v>
-      </c>
-      <c r="E10" s="2">
-        <f>[1]USData!E10</f>
-        <v>1.305396194649227</v>
       </c>
       <c r="F10" s="2">
         <f>[1]USData!F10</f>
@@ -7554,7 +7558,7 @@
         <v>US</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7571,12 +7575,12 @@
         <v>1.3505671518990054</v>
       </c>
       <c r="D11" s="2">
+        <f>[1]USData!E11</f>
+        <v>1.3511229606178425</v>
+      </c>
+      <c r="E11" s="2">
         <f>[1]USData!D11</f>
         <v>1.1874048954393288</v>
-      </c>
-      <c r="E11" s="2">
-        <f>[1]USData!E11</f>
-        <v>1.3511229606178425</v>
       </c>
       <c r="F11" s="2">
         <f>[1]USData!F11</f>
@@ -7595,7 +7599,7 @@
         <v>US</v>
       </c>
       <c r="J11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7612,12 +7616,12 @@
         <v>1.3759100784627976</v>
       </c>
       <c r="D12" s="2">
+        <f>[1]USData!E12</f>
+        <v>1.392744919648649</v>
+      </c>
+      <c r="E12" s="2">
         <f>[1]USData!D12</f>
         <v>1.1894482848571801</v>
-      </c>
-      <c r="E12" s="2">
-        <f>[1]USData!E12</f>
-        <v>1.392744919648649</v>
       </c>
       <c r="F12" s="2">
         <f>[1]USData!F12</f>
@@ -7636,7 +7640,7 @@
         <v>US</v>
       </c>
       <c r="J12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7653,12 +7657,12 @@
         <v>1.37270471676687</v>
       </c>
       <c r="D13" s="2">
+        <f>[1]USData!E13</f>
+        <v>1.4245782523020183</v>
+      </c>
+      <c r="E13" s="2">
         <f>[1]USData!D13</f>
         <v>1.1726174948915264</v>
-      </c>
-      <c r="E13" s="2">
-        <f>[1]USData!E13</f>
-        <v>1.4245782523020183</v>
       </c>
       <c r="F13" s="2">
         <f>[1]USData!F13</f>
@@ -7677,7 +7681,7 @@
         <v>US</v>
       </c>
       <c r="J13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7694,12 +7698,12 @@
         <v>1.41927673670182</v>
       </c>
       <c r="D14" s="2">
+        <f>[1]USData!E14</f>
+        <v>1.4611842525767238</v>
+      </c>
+      <c r="E14" s="2">
         <f>[1]USData!D14</f>
         <v>1.1735631059519152</v>
-      </c>
-      <c r="E14" s="2">
-        <f>[1]USData!E14</f>
-        <v>1.4611842525767238</v>
       </c>
       <c r="F14" s="2">
         <f>[1]USData!F14</f>
@@ -7718,7 +7722,7 @@
         <v>US</v>
       </c>
       <c r="J14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7735,12 +7739,12 @@
         <v>1.4597551412201801</v>
       </c>
       <c r="D15" s="2">
+        <f>[1]USData!E15</f>
+        <v>1.5048028580248676</v>
+      </c>
+      <c r="E15" s="2">
         <f>[1]USData!D15</f>
         <v>1.2010347376201034</v>
-      </c>
-      <c r="E15" s="2">
-        <f>[1]USData!E15</f>
-        <v>1.5048028580248676</v>
       </c>
       <c r="F15" s="2">
         <f>[1]USData!F15</f>
@@ -7759,7 +7763,7 @@
         <v>US</v>
       </c>
       <c r="J15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7776,12 +7780,12 @@
         <v>1.519225742311203</v>
       </c>
       <c r="D16" s="2">
+        <f>[1]USData!E16</f>
+        <v>1.5570251845082432</v>
+      </c>
+      <c r="E16" s="2">
         <f>[1]USData!D16</f>
         <v>1.2386200599973913</v>
-      </c>
-      <c r="E16" s="2">
-        <f>[1]USData!E16</f>
-        <v>1.5570251845082432</v>
       </c>
       <c r="F16" s="2">
         <f>[1]USData!F16</f>
@@ -7800,7 +7804,7 @@
         <v>US</v>
       </c>
       <c r="J16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7817,12 +7821,12 @@
         <v>1.5574243976019781</v>
       </c>
       <c r="D17" s="2">
+        <f>[1]USData!E17</f>
+        <v>1.6154642862485431</v>
+      </c>
+      <c r="E17" s="2">
         <f>[1]USData!D17</f>
         <v>1.2691350376070605</v>
-      </c>
-      <c r="E17" s="2">
-        <f>[1]USData!E17</f>
-        <v>1.6154642862485431</v>
       </c>
       <c r="F17" s="2">
         <f>[1]USData!F17</f>
@@ -7841,7 +7845,7 @@
         <v>US</v>
       </c>
       <c r="J17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7858,12 +7862,12 @@
         <v>1.6156822749497555</v>
       </c>
       <c r="D18" s="2">
+        <f>[1]USData!E18</f>
+        <v>1.6848298661966756</v>
+      </c>
+      <c r="E18" s="2">
         <f>[1]USData!D18</f>
         <v>1.2849767401417329</v>
-      </c>
-      <c r="E18" s="2">
-        <f>[1]USData!E18</f>
-        <v>1.6848298661966756</v>
       </c>
       <c r="F18" s="2">
         <f>[1]USData!F18</f>
@@ -7882,7 +7886,7 @@
         <v>US</v>
       </c>
       <c r="J18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7899,12 +7903,12 @@
         <v>1.6876872115495867</v>
       </c>
       <c r="D19" s="2">
+        <f>[1]USData!E19</f>
+        <v>1.7661721968142325</v>
+      </c>
+      <c r="E19" s="2">
         <f>[1]USData!D19</f>
         <v>1.3226164079822615</v>
-      </c>
-      <c r="E19" s="2">
-        <f>[1]USData!E19</f>
-        <v>1.7661721968142325</v>
       </c>
       <c r="F19" s="2">
         <f>[1]USData!F19</f>
@@ -7923,7 +7927,7 @@
         <v>US</v>
       </c>
       <c r="J19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7940,12 +7944,12 @@
         <v>1.7611919831675658</v>
       </c>
       <c r="D20" s="2">
+        <f>[1]USData!E20</f>
+        <v>1.8634435011076613</v>
+      </c>
+      <c r="E20" s="2">
         <f>[1]USData!D20</f>
         <v>1.3510825616277553</v>
-      </c>
-      <c r="E20" s="2">
-        <f>[1]USData!E20</f>
-        <v>1.8634435011076613</v>
       </c>
       <c r="F20" s="2">
         <f>[1]USData!F20</f>
@@ -7964,7 +7968,7 @@
         <v>US</v>
       </c>
       <c r="J20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7981,12 +7985,12 @@
         <v>1.8461897762674677</v>
       </c>
       <c r="D21" s="2">
+        <f>[1]USData!E21</f>
+        <v>1.9744542948568879</v>
+      </c>
+      <c r="E21" s="2">
         <f>[1]USData!D21</f>
         <v>1.3775161949480457</v>
-      </c>
-      <c r="E21" s="2">
-        <f>[1]USData!E21</f>
-        <v>1.9744542948568879</v>
       </c>
       <c r="F21" s="2">
         <f>[1]USData!F21</f>
@@ -8005,7 +8009,7 @@
         <v>US</v>
       </c>
       <c r="J21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8022,12 +8026,12 @@
         <v>1.9226042278206541</v>
       </c>
       <c r="D22" s="2">
+        <f>[1]USData!E22</f>
+        <v>2.095546779486301</v>
+      </c>
+      <c r="E22" s="2">
         <f>[1]USData!D22</f>
         <v>1.395874092430764</v>
-      </c>
-      <c r="E22" s="2">
-        <f>[1]USData!E22</f>
-        <v>2.095546779486301</v>
       </c>
       <c r="F22" s="2">
         <f>[1]USData!F22</f>
@@ -8046,7 +8050,7 @@
         <v>US</v>
       </c>
       <c r="J22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8063,12 +8067,12 @@
         <v>1.9433533739860045</v>
       </c>
       <c r="D23" s="2">
+        <f>[1]USData!E23</f>
+        <v>2.2032567557827543</v>
+      </c>
+      <c r="E23" s="2">
         <f>[1]USData!D23</f>
         <v>1.3788204860658233</v>
-      </c>
-      <c r="E23" s="2">
-        <f>[1]USData!E23</f>
-        <v>2.2032567557827543</v>
       </c>
       <c r="F23" s="2">
         <f>[1]USData!F23</f>
@@ -8087,7 +8091,7 @@
         <v>US</v>
       </c>
       <c r="J23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -8104,12 +8108,12 @@
         <v>1.9785994969124825</v>
       </c>
       <c r="D24" s="2">
+        <f>[1]USData!E24</f>
+        <v>2.2926599241432113</v>
+      </c>
+      <c r="E24" s="2">
         <f>[1]USData!D24</f>
         <v>1.3608756141037346</v>
-      </c>
-      <c r="E24" s="2">
-        <f>[1]USData!E24</f>
-        <v>2.2926599241432113</v>
       </c>
       <c r="F24" s="2">
         <f>[1]USData!F24</f>
@@ -8128,7 +8132,7 @@
         <v>US</v>
       </c>
       <c r="J24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -8145,12 +8149,12 @@
         <v>2.0288782519637127</v>
       </c>
       <c r="D25" s="2">
+        <f>[1]USData!E25</f>
+        <v>2.3844029847701655</v>
+      </c>
+      <c r="E25" s="2">
         <f>[1]USData!D25</f>
         <v>1.353821572975088</v>
-      </c>
-      <c r="E25" s="2">
-        <f>[1]USData!E25</f>
-        <v>2.3844029847701655</v>
       </c>
       <c r="F25" s="2">
         <f>[1]USData!F25</f>
@@ -8169,7 +8173,7 @@
         <v>US</v>
       </c>
       <c r="J25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8186,12 +8190,12 @@
         <v>2.0992419405293989</v>
       </c>
       <c r="D26" s="2">
+        <f>[1]USData!E26</f>
+        <v>2.4884570663903292</v>
+      </c>
+      <c r="E26" s="2">
         <f>[1]USData!D26</f>
         <v>1.36902199904352</v>
-      </c>
-      <c r="E26" s="2">
-        <f>[1]USData!E26</f>
-        <v>2.4884570663903292</v>
       </c>
       <c r="F26" s="2">
         <f>[1]USData!F26</f>
@@ -8210,7 +8214,7 @@
         <v>US</v>
       </c>
       <c r="J26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8227,12 +8231,12 @@
         <v>2.1636962791235823</v>
       </c>
       <c r="D27" s="2">
+        <f>[1]USData!E27</f>
+        <v>2.6028860393862372</v>
+      </c>
+      <c r="E27" s="2">
         <f>[1]USData!D27</f>
         <v>1.3900863005956263</v>
-      </c>
-      <c r="E27" s="2">
-        <f>[1]USData!E27</f>
-        <v>2.6028860393862372</v>
       </c>
       <c r="F27" s="2">
         <f>[1]USData!F27</f>
@@ -8251,7 +8255,7 @@
         <v>US</v>
       </c>
       <c r="J27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8268,12 +8272,12 @@
         <v>2.2212085242051947</v>
       </c>
       <c r="D28" s="2">
+        <f>[1]USData!E28</f>
+        <v>2.7161623373356019</v>
+      </c>
+      <c r="E28" s="2">
         <f>[1]USData!D28</f>
         <v>1.415492804660667</v>
-      </c>
-      <c r="E28" s="2">
-        <f>[1]USData!E28</f>
-        <v>2.7161623373356019</v>
       </c>
       <c r="F28" s="2">
         <f>[1]USData!F28</f>
@@ -8292,7 +8296,7 @@
         <v>US</v>
       </c>
       <c r="J28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8309,12 +8313,12 @@
         <v>2.2637009928907821</v>
       </c>
       <c r="D29" s="2">
+        <f>[1]USData!E29</f>
+        <v>2.8157773416941714</v>
+      </c>
+      <c r="E29" s="2">
         <f>[1]USData!D29</f>
         <v>1.4252423807660537</v>
-      </c>
-      <c r="E29" s="2">
-        <f>[1]USData!E29</f>
-        <v>2.8157773416941714</v>
       </c>
       <c r="F29" s="2">
         <f>[1]USData!F29</f>
@@ -8333,7 +8337,7 @@
         <v>US</v>
       </c>
       <c r="J29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8350,12 +8354,12 @@
         <v>2.2560818309985899</v>
       </c>
       <c r="D30" s="2">
+        <f>[1]USData!E30</f>
+        <v>2.8877482718713834</v>
+      </c>
+      <c r="E30" s="2">
         <f>[1]USData!D30</f>
         <v>1.4100365201512979</v>
-      </c>
-      <c r="E30" s="2">
-        <f>[1]USData!E30</f>
-        <v>2.8877482718713834</v>
       </c>
       <c r="F30" s="2">
         <f>[1]USData!F30</f>
@@ -8374,7 +8378,7 @@
         <v>US</v>
       </c>
       <c r="J30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8391,12 +8395,12 @@
         <v>2.1774390531327268</v>
       </c>
       <c r="D31" s="2">
+        <f>[1]USData!E31</f>
+        <v>2.9040578894188074</v>
+      </c>
+      <c r="E31" s="2">
         <f>[1]USData!D31</f>
         <v>1.3320833876787965</v>
-      </c>
-      <c r="E31" s="2">
-        <f>[1]USData!E31</f>
-        <v>2.9040578894188074</v>
       </c>
       <c r="F31" s="2">
         <f>[1]USData!F31</f>
@@ -8415,7 +8419,7 @@
         <v>US</v>
       </c>
       <c r="J31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -8432,12 +8436,12 @@
         <v>2.2434060824737849</v>
       </c>
       <c r="D32" s="2">
+        <f>[1]USData!E32</f>
+        <v>2.9249375453026043</v>
+      </c>
+      <c r="E32" s="2">
         <f>[1]USData!D32</f>
         <v>1.3321431676883613</v>
-      </c>
-      <c r="E32" s="2">
-        <f>[1]USData!E32</f>
-        <v>2.9249375453026043</v>
       </c>
       <c r="F32" s="2">
         <f>[1]USData!F32</f>
@@ -8456,7 +8460,7 @@
         <v>US</v>
       </c>
       <c r="J32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -8473,12 +8477,12 @@
         <v>2.2823332290590894</v>
       </c>
       <c r="D33" s="2">
+        <f>[1]USData!E33</f>
+        <v>2.9596752763713856</v>
+      </c>
+      <c r="E33" s="2">
         <f>[1]USData!D33</f>
         <v>1.3521966436241903</v>
-      </c>
-      <c r="E33" s="2">
-        <f>[1]USData!E33</f>
-        <v>2.9596752763713856</v>
       </c>
       <c r="F33" s="2">
         <f>[1]USData!F33</f>
@@ -8497,7 +8501,7 @@
         <v>US</v>
       </c>
       <c r="J33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -8514,11 +8518,11 @@
         <v>1</v>
       </c>
       <c r="D34" s="2">
+        <f>[2]UKData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
         <f>[2]UKData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <f>[2]UKData!E2</f>
         <v>1</v>
       </c>
       <c r="F34" s="2">
@@ -8538,7 +8542,7 @@
         <v>UK</v>
       </c>
       <c r="J34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -8555,12 +8559,12 @@
         <v>0.98677369106435442</v>
       </c>
       <c r="D35" s="2">
+        <f>[2]UKData!E3</f>
+        <v>1.0183519235909098</v>
+      </c>
+      <c r="E35" s="2">
         <f>[2]UKData!D3</f>
         <v>0.95413909207012659</v>
-      </c>
-      <c r="E35" s="2">
-        <f>[2]UKData!E3</f>
-        <v>1.0183519235909098</v>
       </c>
       <c r="F35" s="2">
         <f>[2]UKData!F3</f>
@@ -8579,7 +8583,7 @@
         <v>UK</v>
       </c>
       <c r="J35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -8596,12 +8600,12 @@
         <v>1.0074198667253054</v>
       </c>
       <c r="D36" s="2">
+        <f>[2]UKData!E4</f>
+        <v>1.0407303065950715</v>
+      </c>
+      <c r="E36" s="2">
         <f>[2]UKData!D4</f>
         <v>0.93335655404620921</v>
-      </c>
-      <c r="E36" s="2">
-        <f>[2]UKData!E4</f>
-        <v>1.0407303065950715</v>
       </c>
       <c r="F36" s="2">
         <f>[2]UKData!F4</f>
@@ -8620,7 +8624,7 @@
         <v>UK</v>
       </c>
       <c r="J36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -8637,12 +8641,12 @@
         <v>1.0439302403933943</v>
       </c>
       <c r="D37" s="2">
+        <f>[2]UKData!E5</f>
+        <v>1.0662694571380202</v>
+      </c>
+      <c r="E37" s="2">
         <f>[2]UKData!D5</f>
         <v>0.92337164750957856</v>
-      </c>
-      <c r="E37" s="2">
-        <f>[2]UKData!E5</f>
-        <v>1.0662694571380202</v>
       </c>
       <c r="F37" s="2">
         <f>[2]UKData!F5</f>
@@ -8661,7 +8665,7 @@
         <v>UK</v>
       </c>
       <c r="J37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -8678,12 +8682,12 @@
         <v>1.0718119648887277</v>
       </c>
       <c r="D38" s="2">
+        <f>[2]UKData!E6</f>
+        <v>1.098967929092642</v>
+      </c>
+      <c r="E38" s="2">
         <f>[2]UKData!D6</f>
         <v>0.9465923603854639</v>
-      </c>
-      <c r="E38" s="2">
-        <f>[2]UKData!E6</f>
-        <v>1.098967929092642</v>
       </c>
       <c r="F38" s="2">
         <f>[2]UKData!F6</f>
@@ -8702,7 +8706,7 @@
         <v>UK</v>
       </c>
       <c r="J38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -8719,12 +8723,12 @@
         <v>1.1103961291528321</v>
       </c>
       <c r="D39" s="2">
+        <f>[2]UKData!E7</f>
+        <v>1.1338535752888379</v>
+      </c>
+      <c r="E39" s="2">
         <f>[2]UKData!D7</f>
         <v>0.95982816672471849</v>
-      </c>
-      <c r="E39" s="2">
-        <f>[2]UKData!E7</f>
-        <v>1.1338535752888379</v>
       </c>
       <c r="F39" s="2">
         <f>[2]UKData!F7</f>
@@ -8743,7 +8747,7 @@
         <v>UK</v>
       </c>
       <c r="J39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -8760,12 +8764,12 @@
         <v>1.1549496212053019</v>
       </c>
       <c r="D40" s="2">
+        <f>[2]UKData!E8</f>
+        <v>1.1687497635780608</v>
+      </c>
+      <c r="E40" s="2">
         <f>[2]UKData!D8</f>
         <v>0.96296296296296313</v>
-      </c>
-      <c r="E40" s="2">
-        <f>[2]UKData!E8</f>
-        <v>1.1687497635780608</v>
       </c>
       <c r="F40" s="2">
         <f>[2]UKData!F8</f>
@@ -8784,7 +8788,7 @@
         <v>UK</v>
       </c>
       <c r="J40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -8801,12 +8805,12 @@
         <v>1.2076422484039357</v>
       </c>
       <c r="D41" s="2">
+        <f>[2]UKData!E9</f>
+        <v>1.2120318768088216</v>
+      </c>
+      <c r="E41" s="2">
         <f>[2]UKData!D9</f>
         <v>0.98479043306629521</v>
-      </c>
-      <c r="E41" s="2">
-        <f>[2]UKData!E9</f>
-        <v>1.2120318768088216</v>
       </c>
       <c r="F41" s="2">
         <f>[2]UKData!F9</f>
@@ -8825,7 +8829,7 @@
         <v>UK</v>
       </c>
       <c r="J41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -8842,12 +8846,12 @@
         <v>1.2684097138100394</v>
       </c>
       <c r="D42" s="2">
+        <f>[2]UKData!E10</f>
+        <v>1.2708548955309587</v>
+      </c>
+      <c r="E42" s="2">
         <f>[2]UKData!D10</f>
         <v>1.0213630558458144</v>
-      </c>
-      <c r="E42" s="2">
-        <f>[2]UKData!E10</f>
-        <v>1.2708548955309587</v>
       </c>
       <c r="F42" s="2">
         <f>[2]UKData!F10</f>
@@ -8866,7 +8870,7 @@
         <v>UK</v>
       </c>
       <c r="J42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -8883,12 +8887,12 @@
         <v>1.2973501945625365</v>
       </c>
       <c r="D43" s="2">
+        <f>[2]UKData!E11</f>
+        <v>1.3343226364162342</v>
+      </c>
+      <c r="E43" s="2">
         <f>[2]UKData!D11</f>
         <v>1.0502728433762918</v>
-      </c>
-      <c r="E43" s="2">
-        <f>[2]UKData!E11</f>
-        <v>1.3343226364162342</v>
       </c>
       <c r="F43" s="2">
         <f>[2]UKData!F11</f>
@@ -8907,7 +8911,7 @@
         <v>UK</v>
       </c>
       <c r="J43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -8924,12 +8928,12 @@
         <v>1.3074619597878372</v>
       </c>
       <c r="D44" s="2">
+        <f>[2]UKData!E12</f>
+        <v>1.3899793064915109</v>
+      </c>
+      <c r="E44" s="2">
         <f>[2]UKData!D12</f>
         <v>1.0474863578311855</v>
-      </c>
-      <c r="E44" s="2">
-        <f>[2]UKData!E12</f>
-        <v>1.3899793064915109</v>
       </c>
       <c r="F44" s="2">
         <f>[2]UKData!F12</f>
@@ -8948,7 +8952,7 @@
         <v>UK</v>
       </c>
       <c r="J44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -8965,12 +8969,12 @@
         <v>1.2892539240421685</v>
       </c>
       <c r="D45" s="2">
+        <f>[2]UKData!E13</f>
+        <v>1.4296355598440513</v>
+      </c>
+      <c r="E45" s="2">
         <f>[2]UKData!D13</f>
         <v>1.0051085568326947</v>
-      </c>
-      <c r="E45" s="2">
-        <f>[2]UKData!E13</f>
-        <v>1.4296355598440513</v>
       </c>
       <c r="F45" s="2">
         <f>[2]UKData!F13</f>
@@ -8989,7 +8993,7 @@
         <v>UK</v>
       </c>
       <c r="J45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -9006,12 +9010,12 @@
         <v>1.2911442540397766</v>
       </c>
       <c r="D46" s="2">
+        <f>[2]UKData!E14</f>
+        <v>1.4652783763688442</v>
+      </c>
+      <c r="E46" s="2">
         <f>[2]UKData!D14</f>
         <v>0.97735980494601193</v>
-      </c>
-      <c r="E46" s="2">
-        <f>[2]UKData!E14</f>
-        <v>1.4652783763688442</v>
       </c>
       <c r="F46" s="2">
         <f>[2]UKData!F14</f>
@@ -9030,7 +9034,7 @@
         <v>UK</v>
       </c>
       <c r="J46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -9047,12 +9051,12 @@
         <v>1.3198395491327199</v>
       </c>
       <c r="D47" s="2">
+        <f>[2]UKData!E15</f>
+        <v>1.4980934314698839</v>
+      </c>
+      <c r="E47" s="2">
         <f>[2]UKData!D15</f>
         <v>0.96632996632996637</v>
-      </c>
-      <c r="E47" s="2">
-        <f>[2]UKData!E15</f>
-        <v>1.4980934314698839</v>
       </c>
       <c r="F47" s="2">
         <f>[2]UKData!F15</f>
@@ -9071,7 +9075,7 @@
         <v>UK</v>
       </c>
       <c r="J47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -9088,12 +9092,12 @@
         <v>1.3763325540544364</v>
       </c>
       <c r="D48" s="2">
+        <f>[2]UKData!E16</f>
+        <v>1.5348289049307851</v>
+      </c>
+      <c r="E48" s="2">
         <f>[2]UKData!D16</f>
         <v>0.97979797979797989</v>
-      </c>
-      <c r="E48" s="2">
-        <f>[2]UKData!E16</f>
-        <v>1.5348289049307851</v>
       </c>
       <c r="F48" s="2">
         <f>[2]UKData!F16</f>
@@ -9112,7 +9116,7 @@
         <v>UK</v>
       </c>
       <c r="J48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -9129,12 +9133,12 @@
         <v>1.4183407446271334</v>
       </c>
       <c r="D49" s="2">
+        <f>[2]UKData!E17</f>
+        <v>1.5731512734538315</v>
+      </c>
+      <c r="E49" s="2">
         <f>[2]UKData!D17</f>
         <v>0.99314988970161389</v>
-      </c>
-      <c r="E49" s="2">
-        <f>[2]UKData!E17</f>
-        <v>1.5731512734538315</v>
       </c>
       <c r="F49" s="2">
         <f>[2]UKData!F17</f>
@@ -9153,7 +9157,7 @@
         <v>UK</v>
       </c>
       <c r="J49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -9170,12 +9174,12 @@
         <v>1.4592636028746733</v>
       </c>
       <c r="D50" s="2">
+        <f>[2]UKData!E18</f>
+        <v>1.6167099615957752</v>
+      </c>
+      <c r="E50" s="2">
         <f>[2]UKData!D18</f>
         <v>1.0020898641588296</v>
-      </c>
-      <c r="E50" s="2">
-        <f>[2]UKData!E18</f>
-        <v>1.6167099615957752</v>
       </c>
       <c r="F50" s="2">
         <f>[2]UKData!F18</f>
@@ -9194,7 +9198,7 @@
         <v>UK</v>
       </c>
       <c r="J50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -9211,12 +9215,12 @@
         <v>1.5092188950699679</v>
       </c>
       <c r="D51" s="2">
+        <f>[2]UKData!E19</f>
+        <v>1.6682756794533986</v>
+      </c>
+      <c r="E51" s="2">
         <f>[2]UKData!D19</f>
         <v>1.019040984558226</v>
-      </c>
-      <c r="E51" s="2">
-        <f>[2]UKData!E19</f>
-        <v>1.6682756794533986</v>
       </c>
       <c r="F51" s="2">
         <f>[2]UKData!F19</f>
@@ -9235,7 +9239,7 @@
         <v>UK</v>
       </c>
       <c r="J51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -9252,12 +9256,12 @@
         <v>1.5671581524660447</v>
       </c>
       <c r="D52" s="2">
+        <f>[2]UKData!E20</f>
+        <v>1.7385418300949471</v>
+      </c>
+      <c r="E52" s="2">
         <f>[2]UKData!D20</f>
         <v>1.0272843376291652</v>
-      </c>
-      <c r="E52" s="2">
-        <f>[2]UKData!E20</f>
-        <v>1.7385418300949471</v>
       </c>
       <c r="F52" s="2">
         <f>[2]UKData!F20</f>
@@ -9276,7 +9280,7 @@
         <v>UK</v>
       </c>
       <c r="J52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -9293,12 +9297,12 @@
         <v>1.6244484394275687</v>
       </c>
       <c r="D53" s="2">
+        <f>[2]UKData!E21</f>
+        <v>1.8091242435273098</v>
+      </c>
+      <c r="E53" s="2">
         <f>[2]UKData!D21</f>
         <v>1.03645651921514</v>
-      </c>
-      <c r="E53" s="2">
-        <f>[2]UKData!E21</f>
-        <v>1.8091242435273098</v>
       </c>
       <c r="F53" s="2">
         <f>[2]UKData!F21</f>
@@ -9317,7 +9321,7 @@
         <v>UK</v>
       </c>
       <c r="J53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -9334,12 +9338,12 @@
         <v>1.6968605090774418</v>
       </c>
       <c r="D54" s="2">
+        <f>[2]UKData!E22</f>
+        <v>1.8797072770827921</v>
+      </c>
+      <c r="E54" s="2">
         <f>[2]UKData!D22</f>
         <v>1.038894694067108</v>
-      </c>
-      <c r="E54" s="2">
-        <f>[2]UKData!E22</f>
-        <v>1.8797072770827921</v>
       </c>
       <c r="F54" s="2">
         <f>[2]UKData!F22</f>
@@ -9358,7 +9362,7 @@
         <v>UK</v>
       </c>
       <c r="J54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -9375,12 +9379,12 @@
         <v>1.7503229849553736</v>
       </c>
       <c r="D55" s="2">
+        <f>[2]UKData!E23</f>
+        <v>1.9505854892430343</v>
+      </c>
+      <c r="E55" s="2">
         <f>[2]UKData!D23</f>
         <v>1.0488796006037386</v>
-      </c>
-      <c r="E55" s="2">
-        <f>[2]UKData!E23</f>
-        <v>1.9505854892430343</v>
       </c>
       <c r="F55" s="2">
         <f>[2]UKData!F23</f>
@@ -9399,7 +9403,7 @@
         <v>UK</v>
       </c>
       <c r="J55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -9416,12 +9420,12 @@
         <v>1.7968379622842729</v>
       </c>
       <c r="D56" s="2">
+        <f>[2]UKData!E24</f>
+        <v>2.0238604772591549</v>
+      </c>
+      <c r="E56" s="2">
         <f>[2]UKData!D24</f>
         <v>1.0459770114942528</v>
-      </c>
-      <c r="E56" s="2">
-        <f>[2]UKData!E24</f>
-        <v>2.0238604772591549</v>
       </c>
       <c r="F56" s="2">
         <f>[2]UKData!F24</f>
@@ -9440,7 +9444,7 @@
         <v>UK</v>
       </c>
       <c r="J56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -9457,12 +9461,12 @@
         <v>1.8601695896054997</v>
       </c>
       <c r="D57" s="2">
+        <f>[2]UKData!E25</f>
+        <v>2.0943529728392276</v>
+      </c>
+      <c r="E57" s="2">
         <f>[2]UKData!D25</f>
         <v>1.0499245326831534</v>
-      </c>
-      <c r="E57" s="2">
-        <f>[2]UKData!E25</f>
-        <v>2.0943529728392276</v>
       </c>
       <c r="F57" s="2">
         <f>[2]UKData!F25</f>
@@ -9481,7 +9485,7 @@
         <v>UK</v>
       </c>
       <c r="J57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -9498,12 +9502,12 @@
         <v>1.9151434721890022</v>
       </c>
       <c r="D58" s="2">
+        <f>[2]UKData!E26</f>
+        <v>2.1706895086950562</v>
+      </c>
+      <c r="E58" s="2">
         <f>[2]UKData!D26</f>
         <v>1.0593289213978869</v>
-      </c>
-      <c r="E58" s="2">
-        <f>[2]UKData!E26</f>
-        <v>2.1706895086950562</v>
       </c>
       <c r="F58" s="2">
         <f>[2]UKData!F26</f>
@@ -9522,7 +9526,7 @@
         <v>UK</v>
       </c>
       <c r="J58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -9539,12 +9543,12 @@
         <v>1.9550890169683908</v>
       </c>
       <c r="D59" s="2">
+        <f>[2]UKData!E27</f>
+        <v>2.247073794031067</v>
+      </c>
+      <c r="E59" s="2">
         <f>[2]UKData!D27</f>
         <v>1.0719842099152443</v>
-      </c>
-      <c r="E59" s="2">
-        <f>[2]UKData!E27</f>
-        <v>2.247073794031067</v>
       </c>
       <c r="F59" s="2">
         <f>[2]UKData!F27</f>
@@ -9563,7 +9567,7 @@
         <v>UK</v>
       </c>
       <c r="J59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -9580,12 +9584,12 @@
         <v>2.0060610580875688</v>
       </c>
       <c r="D60" s="2">
+        <f>[2]UKData!E28</f>
+        <v>2.3326861315045488</v>
+      </c>
+      <c r="E60" s="2">
         <f>[2]UKData!D28</f>
         <v>1.0777893881342158</v>
-      </c>
-      <c r="E60" s="2">
-        <f>[2]UKData!E28</f>
-        <v>2.3326861315045488</v>
       </c>
       <c r="F60" s="2">
         <f>[2]UKData!F28</f>
@@ -9604,7 +9608,7 @@
         <v>UK</v>
       </c>
       <c r="J60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -9621,12 +9625,12 @@
         <v>2.0755943394689758</v>
       </c>
       <c r="D61" s="2">
+        <f>[2]UKData!E29</f>
+        <v>2.4319703233880055</v>
+      </c>
+      <c r="E61" s="2">
         <f>[2]UKData!D29</f>
         <v>1.0868454661558111</v>
-      </c>
-      <c r="E61" s="2">
-        <f>[2]UKData!E29</f>
-        <v>2.4319703233880055</v>
       </c>
       <c r="F61" s="2">
         <f>[2]UKData!F29</f>
@@ -9645,7 +9649,7 @@
         <v>UK</v>
       </c>
       <c r="J61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -9662,12 +9666,12 @@
         <v>2.0527029147088247</v>
       </c>
       <c r="D62" s="2">
+        <f>[2]UKData!E30</f>
+        <v>2.511672267411972</v>
+      </c>
+      <c r="E62" s="2">
         <f>[2]UKData!D30</f>
         <v>1.0913735051666087</v>
-      </c>
-      <c r="E62" s="2">
-        <f>[2]UKData!E30</f>
-        <v>2.511672267411972</v>
       </c>
       <c r="F62" s="2">
         <f>[2]UKData!F30</f>
@@ -9686,7 +9690,7 @@
         <v>UK</v>
       </c>
       <c r="J62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -9703,12 +9707,12 @@
         <v>1.9629315289040459</v>
       </c>
       <c r="D63" s="2">
+        <f>[2]UKData!E31</f>
+        <v>2.5523349805870459</v>
+      </c>
+      <c r="E63" s="2">
         <f>[2]UKData!D31</f>
         <v>1.0596772320910253</v>
-      </c>
-      <c r="E63" s="2">
-        <f>[2]UKData!E31</f>
-        <v>2.5523349805870459</v>
       </c>
       <c r="F63" s="2">
         <f>[2]UKData!F31</f>
@@ -9727,7 +9731,7 @@
         <v>UK</v>
       </c>
       <c r="J63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -9744,12 +9748,12 @@
         <v>2.0039992695867763</v>
       </c>
       <c r="D64" s="2">
+        <f>[2]UKData!E32</f>
+        <v>2.596944157292989</v>
+      </c>
+      <c r="E64" s="2">
         <f>[2]UKData!D32</f>
         <v>1.0649018924880995</v>
-      </c>
-      <c r="E64" s="2">
-        <f>[2]UKData!E32</f>
-        <v>2.596944157292989</v>
       </c>
       <c r="F64" s="2">
         <f>[2]UKData!F32</f>
@@ -9768,7 +9772,7 @@
         <v>UK</v>
       </c>
       <c r="J64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -9785,12 +9789,12 @@
         <v>2.0171192742504478</v>
       </c>
       <c r="D65" s="2">
+        <f>[2]UKData!E33</f>
+        <v>2.6357626243114307</v>
+      </c>
+      <c r="E65" s="2">
         <f>[2]UKData!D33</f>
         <v>1.0633925461511669</v>
-      </c>
-      <c r="E65" s="2">
-        <f>[2]UKData!E33</f>
-        <v>2.6357626243114307</v>
       </c>
       <c r="F65" s="2">
         <f>[2]UKData!F33</f>
@@ -9809,7 +9813,7 @@
         <v>UK</v>
       </c>
       <c r="J65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -9826,11 +9830,11 @@
         <v>1</v>
       </c>
       <c r="D66" s="2">
+        <f>[3]JPData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
         <f>[3]JPData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E66" s="2">
-        <f>[3]JPData!E2</f>
         <v>1</v>
       </c>
       <c r="F66" s="2">
@@ -9850,7 +9854,7 @@
         <v>JP</v>
       </c>
       <c r="J66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -9867,12 +9871,12 @@
         <v>1.0293342659267073</v>
       </c>
       <c r="D67" s="2">
+        <f>[3]JPData!E3</f>
+        <v>1.0536237334260374</v>
+      </c>
+      <c r="E67" s="2">
         <f>[3]JPData!D3</f>
         <v>1.0029928918817808</v>
-      </c>
-      <c r="E67" s="2">
-        <f>[3]JPData!E3</f>
-        <v>1.0536237334260374</v>
       </c>
       <c r="F67" s="2">
         <f>[3]JPData!F3</f>
@@ -9891,7 +9895,7 @@
         <v>JP</v>
       </c>
       <c r="J67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -9908,12 +9912,12 @@
         <v>1.0577886835145012</v>
       </c>
       <c r="D68" s="2">
+        <f>[3]JPData!E4</f>
+        <v>1.1034365395701646</v>
+      </c>
+      <c r="E68" s="2">
         <f>[3]JPData!D4</f>
         <v>1.008716001623803</v>
-      </c>
-      <c r="E68" s="2">
-        <f>[3]JPData!E4</f>
-        <v>1.1034365395701646</v>
       </c>
       <c r="F68" s="2">
         <f>[3]JPData!F4</f>
@@ -9932,7 +9936,7 @@
         <v>JP</v>
       </c>
       <c r="J68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -9949,12 +9953,12 @@
         <v>1.0748383250011466</v>
       </c>
       <c r="D69" s="2">
+        <f>[3]JPData!E5</f>
+        <v>1.1480866652527828</v>
+      </c>
+      <c r="E69" s="2">
         <f>[3]JPData!D5</f>
         <v>1.0222397338236582</v>
-      </c>
-      <c r="E69" s="2">
-        <f>[3]JPData!E5</f>
-        <v>1.1480866652527828</v>
       </c>
       <c r="F69" s="2">
         <f>[3]JPData!F5</f>
@@ -9973,7 +9977,7 @@
         <v>JP</v>
       </c>
       <c r="J69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -9990,12 +9994,12 @@
         <v>1.1083616169028727</v>
       </c>
       <c r="D70" s="2">
+        <f>[3]JPData!E6</f>
+        <v>1.1948727395166703</v>
+      </c>
+      <c r="E70" s="2">
         <f>[3]JPData!D6</f>
         <v>1.0318870342511004</v>
-      </c>
-      <c r="E70" s="2">
-        <f>[3]JPData!E6</f>
-        <v>1.1948727395166703</v>
       </c>
       <c r="F70" s="2">
         <f>[3]JPData!F6</f>
@@ -10014,7 +10018,7 @@
         <v>JP</v>
       </c>
       <c r="J70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -10031,12 +10035,12 @@
         <v>1.1646933143756975</v>
       </c>
       <c r="D71" s="2">
+        <f>[3]JPData!E7</f>
+        <v>1.248886384225137</v>
+      </c>
+      <c r="E71" s="2">
         <f>[3]JPData!D7</f>
         <v>1.0289896601953339</v>
-      </c>
-      <c r="E71" s="2">
-        <f>[3]JPData!E7</f>
-        <v>1.248886384225137</v>
       </c>
       <c r="F71" s="2">
         <f>[3]JPData!F7</f>
@@ -10055,7 +10059,7 @@
         <v>JP</v>
       </c>
       <c r="J71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -10072,12 +10076,12 @@
         <v>1.1991530217554158</v>
       </c>
       <c r="D72" s="2">
+        <f>[3]JPData!E8</f>
+        <v>1.3067800105968412</v>
+      </c>
+      <c r="E72" s="2">
         <f>[3]JPData!D8</f>
         <v>1.0332242838153003</v>
-      </c>
-      <c r="E72" s="2">
-        <f>[3]JPData!E8</f>
-        <v>1.3067800105968412</v>
       </c>
       <c r="F72" s="2">
         <f>[3]JPData!F8</f>
@@ -10096,7 +10100,7 @@
         <v>JP</v>
       </c>
       <c r="J72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -10113,12 +10117,12 @@
         <v>1.2446605207234478</v>
       </c>
       <c r="D73" s="2">
+        <f>[3]JPData!E9</f>
+        <v>1.372172687698554</v>
+      </c>
+      <c r="E73" s="2">
         <f>[3]JPData!D9</f>
         <v>1.0399742101869762</v>
-      </c>
-      <c r="E73" s="2">
-        <f>[3]JPData!E9</f>
-        <v>1.372172687698554</v>
       </c>
       <c r="F73" s="2">
         <f>[3]JPData!F9</f>
@@ -10137,7 +10141,7 @@
         <v>JP</v>
       </c>
       <c r="J73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -10154,12 +10158,12 @@
         <v>1.3288591784005259</v>
       </c>
       <c r="D74" s="2">
+        <f>[3]JPData!E10</f>
+        <v>1.4538740418932343</v>
+      </c>
+      <c r="E74" s="2">
         <f>[3]JPData!D10</f>
         <v>1.0531397505392777</v>
-      </c>
-      <c r="E74" s="2">
-        <f>[3]JPData!E10</f>
-        <v>1.4538740418932343</v>
       </c>
       <c r="F74" s="2">
         <f>[3]JPData!F10</f>
@@ -10178,7 +10182,7 @@
         <v>JP</v>
       </c>
       <c r="J74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -10195,12 +10199,12 @@
         <v>1.3991683101713832</v>
       </c>
       <c r="D75" s="2">
+        <f>[3]JPData!E11</f>
+        <v>1.546189364240544</v>
+      </c>
+      <c r="E75" s="2">
         <f>[3]JPData!D11</f>
         <v>1.0553764596317787</v>
-      </c>
-      <c r="E75" s="2">
-        <f>[3]JPData!E11</f>
-        <v>1.546189364240544</v>
       </c>
       <c r="F75" s="2">
         <f>[3]JPData!F11</f>
@@ -10219,7 +10223,7 @@
         <v>JP</v>
       </c>
       <c r="J75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -10236,12 +10240,12 @@
         <v>1.471945374489749</v>
       </c>
       <c r="D76" s="2">
+        <f>[3]JPData!E12</f>
+        <v>1.6472915377590815</v>
+      </c>
+      <c r="E76" s="2">
         <f>[3]JPData!D12</f>
         <v>1.058711623723444</v>
-      </c>
-      <c r="E76" s="2">
-        <f>[3]JPData!E12</f>
-        <v>1.6472915377590815</v>
       </c>
       <c r="F76" s="2">
         <f>[3]JPData!F12</f>
@@ -10260,7 +10264,7 @@
         <v>JP</v>
       </c>
       <c r="J76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -10277,12 +10281,12 @@
         <v>1.5208778608448379</v>
       </c>
       <c r="D77" s="2">
+        <f>[3]JPData!E13</f>
+        <v>1.7466279962131233</v>
+      </c>
+      <c r="E77" s="2">
         <f>[3]JPData!D13</f>
         <v>1.0559336469501954</v>
-      </c>
-      <c r="E77" s="2">
-        <f>[3]JPData!E13</f>
-        <v>1.7466279962131233</v>
       </c>
       <c r="F77" s="2">
         <f>[3]JPData!F13</f>
@@ -10301,7 +10305,7 @@
         <v>JP</v>
       </c>
       <c r="J77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -10318,12 +10322,12 @@
         <v>1.533334479964531</v>
       </c>
       <c r="D78" s="2">
+        <f>[3]JPData!E14</f>
+        <v>1.8342261208491757</v>
+      </c>
+      <c r="E78" s="2">
         <f>[3]JPData!D14</f>
         <v>1.0451162531540783</v>
-      </c>
-      <c r="E78" s="2">
-        <f>[3]JPData!E14</f>
-        <v>1.8342261208491757</v>
       </c>
       <c r="F78" s="2">
         <f>[3]JPData!F14</f>
@@ -10342,7 +10346,7 @@
         <v>JP</v>
       </c>
       <c r="J78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -10359,12 +10363,12 @@
         <v>1.5359575899341069</v>
       </c>
       <c r="D79" s="2">
+        <f>[3]JPData!E15</f>
+        <v>1.9100507467712067</v>
+      </c>
+      <c r="E79" s="2">
         <f>[3]JPData!D15</f>
         <v>1.0200269041876606</v>
-      </c>
-      <c r="E79" s="2">
-        <f>[3]JPData!E15</f>
-        <v>1.9100507467712067</v>
       </c>
       <c r="F79" s="2">
         <f>[3]JPData!F15</f>
@@ -10383,7 +10387,7 @@
         <v>JP</v>
       </c>
       <c r="J79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -10400,12 +10404,12 @@
         <v>1.5492214374168691</v>
       </c>
       <c r="D80" s="2">
+        <f>[3]JPData!E16</f>
+        <v>1.9775145087081401</v>
+      </c>
+      <c r="E80" s="2">
         <f>[3]JPData!D16</f>
         <v>1.0163335482484419</v>
-      </c>
-      <c r="E80" s="2">
-        <f>[3]JPData!E16</f>
-        <v>1.9775145087081401</v>
       </c>
       <c r="F80" s="2">
         <f>[3]JPData!F16</f>
@@ -10424,7 +10428,7 @@
         <v>JP</v>
       </c>
       <c r="J80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -10441,12 +10445,12 @@
         <v>1.5790693941200753</v>
       </c>
       <c r="D81" s="2">
+        <f>[3]JPData!E17</f>
+        <v>2.041703015872669</v>
+      </c>
+      <c r="E81" s="2">
         <f>[3]JPData!D17</f>
         <v>1.0207512477016023</v>
-      </c>
-      <c r="E81" s="2">
-        <f>[3]JPData!E17</f>
-        <v>2.041703015872669</v>
       </c>
       <c r="F81" s="2">
         <f>[3]JPData!F17</f>
@@ -10465,7 +10469,7 @@
         <v>JP</v>
       </c>
       <c r="J81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -10482,12 +10486,12 @@
         <v>1.6211392927578774</v>
       </c>
       <c r="D82" s="2">
+        <f>[3]JPData!E18</f>
+        <v>2.1110696906290838</v>
+      </c>
+      <c r="E82" s="2">
         <f>[3]JPData!D18</f>
         <v>1.0222636132801617</v>
-      </c>
-      <c r="E82" s="2">
-        <f>[3]JPData!E18</f>
-        <v>2.1110696906290838</v>
       </c>
       <c r="F82" s="2">
         <f>[3]JPData!F18</f>
@@ -10506,7 +10510,7 @@
         <v>JP</v>
       </c>
       <c r="J82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -10523,12 +10527,12 @@
         <v>1.647152914736504</v>
       </c>
       <c r="D83" s="2">
+        <f>[3]JPData!E19</f>
+        <v>2.1753795440151533</v>
+      </c>
+      <c r="E83" s="2">
         <f>[3]JPData!D19</f>
         <v>1.0137227276707181</v>
-      </c>
-      <c r="E83" s="2">
-        <f>[3]JPData!E19</f>
-        <v>2.1753795440151533</v>
       </c>
       <c r="F83" s="2">
         <f>[3]JPData!F19</f>
@@ -10547,7 +10551,7 @@
         <v>JP</v>
       </c>
       <c r="J83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -10564,12 +10568,12 @@
         <v>1.6124657921692733</v>
       </c>
       <c r="D84" s="2">
+        <f>[3]JPData!E20</f>
+        <v>2.2196603471886669</v>
+      </c>
+      <c r="E84" s="2">
         <f>[3]JPData!D20</f>
         <v>0.98991490953665895</v>
-      </c>
-      <c r="E84" s="2">
-        <f>[3]JPData!E20</f>
-        <v>2.2196603471886669</v>
       </c>
       <c r="F84" s="2">
         <f>[3]JPData!F20</f>
@@ -10588,7 +10592,7 @@
         <v>JP</v>
       </c>
       <c r="J84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -10605,12 +10609,12 @@
         <v>1.6111754498616397</v>
       </c>
       <c r="D85" s="2">
+        <f>[3]JPData!E21</f>
+        <v>2.2602792639349554</v>
+      </c>
+      <c r="E85" s="2">
         <f>[3]JPData!D21</f>
         <v>0.9669508321990592</v>
-      </c>
-      <c r="E85" s="2">
-        <f>[3]JPData!E21</f>
-        <v>2.2602792639349554</v>
       </c>
       <c r="F85" s="2">
         <f>[3]JPData!F21</f>
@@ -10629,7 +10633,7 @@
         <v>JP</v>
       </c>
       <c r="J85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -10646,12 +10650,12 @@
         <v>1.6471685853628706</v>
       </c>
       <c r="D86" s="2">
+        <f>[3]JPData!E22</f>
+        <v>2.2993558446972431</v>
+      </c>
+      <c r="E86" s="2">
         <f>[3]JPData!D22</f>
         <v>0.96835176031393522</v>
-      </c>
-      <c r="E86" s="2">
-        <f>[3]JPData!E22</f>
-        <v>2.2993558446972431</v>
       </c>
       <c r="F86" s="2">
         <f>[3]JPData!F22</f>
@@ -10670,7 +10674,7 @@
         <v>JP</v>
       </c>
       <c r="J86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -10687,12 +10691,12 @@
         <v>1.6530045559479583</v>
       </c>
       <c r="D87" s="2">
+        <f>[3]JPData!E23</f>
+        <v>2.3313101675015142</v>
+      </c>
+      <c r="E87" s="2">
         <f>[3]JPData!D23</f>
         <v>0.95134162746455886</v>
-      </c>
-      <c r="E87" s="2">
-        <f>[3]JPData!E23</f>
-        <v>2.3313101675015142</v>
       </c>
       <c r="F87" s="2">
         <f>[3]JPData!F23</f>
@@ -10711,7 +10715,7 @@
         <v>JP</v>
       </c>
       <c r="J87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -10728,12 +10732,12 @@
         <v>1.6576568209267837</v>
       </c>
       <c r="D88" s="2">
+        <f>[3]JPData!E24</f>
+        <v>2.3517249383612211</v>
+      </c>
+      <c r="E88" s="2">
         <f>[3]JPData!D24</f>
         <v>0.93356735200706831</v>
-      </c>
-      <c r="E88" s="2">
-        <f>[3]JPData!E24</f>
-        <v>2.3517249383612211</v>
       </c>
       <c r="F88" s="2">
         <f>[3]JPData!F24</f>
@@ -10752,7 +10756,7 @@
         <v>JP</v>
       </c>
       <c r="J88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -10769,12 +10773,12 @@
         <v>1.6862109954287636</v>
       </c>
       <c r="D89" s="2">
+        <f>[3]JPData!E25</f>
+        <v>2.3712594936109208</v>
+      </c>
+      <c r="E89" s="2">
         <f>[3]JPData!D25</f>
         <v>0.93562894508520988</v>
-      </c>
-      <c r="E89" s="2">
-        <f>[3]JPData!E25</f>
-        <v>2.3712594936109208</v>
       </c>
       <c r="F89" s="2">
         <f>[3]JPData!F25</f>
@@ -10793,7 +10797,7 @@
         <v>JP</v>
       </c>
       <c r="J89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -10810,12 +10814,12 @@
         <v>1.7256165053738781</v>
       </c>
       <c r="D90" s="2">
+        <f>[3]JPData!E26</f>
+        <v>2.3899870782672199</v>
+      </c>
+      <c r="E90" s="2">
         <f>[3]JPData!D26</f>
         <v>0.94467129928122839</v>
-      </c>
-      <c r="E90" s="2">
-        <f>[3]JPData!E26</f>
-        <v>2.3899870782672199</v>
       </c>
       <c r="F90" s="2">
         <f>[3]JPData!F26</f>
@@ -10834,7 +10838,7 @@
         <v>JP</v>
       </c>
       <c r="J90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -10851,12 +10855,12 @@
         <v>1.7478221651454693</v>
       </c>
       <c r="D91" s="2">
+        <f>[3]JPData!E27</f>
+        <v>2.408948245289908</v>
+      </c>
+      <c r="E91" s="2">
         <f>[3]JPData!D27</f>
         <v>0.94586527210640681</v>
-      </c>
-      <c r="E91" s="2">
-        <f>[3]JPData!E27</f>
-        <v>2.408948245289908</v>
       </c>
       <c r="F91" s="2">
         <f>[3]JPData!F27</f>
@@ -10875,7 +10879,7 @@
         <v>JP</v>
       </c>
       <c r="J91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -10892,12 +10896,12 @@
         <v>1.7771935054808972</v>
       </c>
       <c r="D92" s="2">
+        <f>[3]JPData!E28</f>
+        <v>2.4294125749668209</v>
+      </c>
+      <c r="E92" s="2">
         <f>[3]JPData!D28</f>
         <v>0.95474842992573494</v>
-      </c>
-      <c r="E92" s="2">
-        <f>[3]JPData!E28</f>
-        <v>2.4294125749668209</v>
       </c>
       <c r="F92" s="2">
         <f>[3]JPData!F28</f>
@@ -10916,7 +10920,7 @@
         <v>JP</v>
       </c>
       <c r="J92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -10933,12 +10937,12 @@
         <v>1.8156828570991759</v>
       </c>
       <c r="D93" s="2">
+        <f>[3]JPData!E29</f>
+        <v>2.4488860927026828</v>
+      </c>
+      <c r="E93" s="2">
         <f>[3]JPData!D29</f>
         <v>0.95413552387547662</v>
-      </c>
-      <c r="E93" s="2">
-        <f>[3]JPData!E29</f>
-        <v>2.4488860927026828</v>
       </c>
       <c r="F93" s="2">
         <f>[3]JPData!F29</f>
@@ -10957,7 +10961,7 @@
         <v>JP</v>
       </c>
       <c r="J93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -10974,12 +10978,12 @@
         <v>1.796180953691388</v>
       </c>
       <c r="D94" s="2">
+        <f>[3]JPData!E30</f>
+        <v>2.4586584719704803</v>
+      </c>
+      <c r="E94" s="2">
         <f>[3]JPData!D30</f>
         <v>0.9400864436325429</v>
-      </c>
-      <c r="E94" s="2">
-        <f>[3]JPData!E30</f>
-        <v>2.4586584719704803</v>
       </c>
       <c r="F94" s="2">
         <f>[3]JPData!F30</f>
@@ -10998,7 +11002,7 @@
         <v>JP</v>
       </c>
       <c r="J94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -11015,12 +11019,12 @@
         <v>1.6968914828234647</v>
       </c>
       <c r="D95" s="2">
+        <f>[3]JPData!E31</f>
+        <v>2.448949316634927</v>
+      </c>
+      <c r="E95" s="2">
         <f>[3]JPData!D31</f>
         <v>0.90052614402496201</v>
-      </c>
-      <c r="E95" s="2">
-        <f>[3]JPData!E31</f>
-        <v>2.448949316634927</v>
       </c>
       <c r="F95" s="2">
         <f>[3]JPData!F31</f>
@@ -11039,7 +11043,7 @@
         <v>JP</v>
       </c>
       <c r="J95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -11056,12 +11060,12 @@
         <v>1.7726497882554388</v>
       </c>
       <c r="D96" s="2">
+        <f>[3]JPData!E32</f>
+        <v>2.4396909278941075</v>
+      </c>
+      <c r="E96" s="2">
         <f>[3]JPData!D32</f>
         <v>0.90675072235355925</v>
-      </c>
-      <c r="E96" s="2">
-        <f>[3]JPData!E32</f>
-        <v>2.4396909278941075</v>
       </c>
       <c r="F96" s="2">
         <f>[3]JPData!F32</f>
@@ -11080,7 +11084,7 @@
         <v>JP</v>
       </c>
       <c r="J96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -11097,12 +11101,12 @@
         <v>1.7597635646470668</v>
       </c>
       <c r="D97" s="2">
+        <f>[3]JPData!E33</f>
+        <v>2.4319898156630644</v>
+      </c>
+      <c r="E97" s="2">
         <f>[3]JPData!D33</f>
         <v>0.87895503498340377</v>
-      </c>
-      <c r="E97" s="2">
-        <f>[3]JPData!E33</f>
-        <v>2.4319898156630644</v>
       </c>
       <c r="F97" s="2">
         <f>[3]JPData!F33</f>
@@ -11121,7 +11125,7 @@
         <v>JP</v>
       </c>
       <c r="J97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -11138,11 +11142,11 @@
         <v>1</v>
       </c>
       <c r="D98" s="2">
+        <f>[4]CNData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2">
         <f>[4]CNData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E98" s="2">
-        <f>[4]CNData!E2</f>
         <v>1</v>
       </c>
       <c r="F98" s="2">
@@ -11162,7 +11166,7 @@
         <v>CN</v>
       </c>
       <c r="J98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -11179,12 +11183,12 @@
         <v>1.1420010626344625</v>
       </c>
       <c r="D99" s="2">
+        <f>[4]CNData!E3</f>
+        <v>1.0985107132899505</v>
+      </c>
+      <c r="E99" s="2">
         <f>[4]CNData!D3</f>
         <v>1.025828510517504</v>
-      </c>
-      <c r="E99" s="2">
-        <f>[4]CNData!E3</f>
-        <v>1.0985107132899505</v>
       </c>
       <c r="F99" s="2">
         <f>[4]CNData!F3</f>
@@ -11203,7 +11207,7 @@
         <v>CN</v>
       </c>
       <c r="J99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -11220,12 +11224,12 @@
         <v>1.3018805145938037</v>
       </c>
       <c r="D100" s="2">
+        <f>[4]CNData!E4</f>
+        <v>1.2403796076615936</v>
+      </c>
+      <c r="E100" s="2">
         <f>[4]CNData!D4</f>
         <v>1.0376896829396873</v>
-      </c>
-      <c r="E100" s="2">
-        <f>[4]CNData!E4</f>
-        <v>1.2403796076615936</v>
       </c>
       <c r="F100" s="2">
         <f>[4]CNData!F4</f>
@@ -11244,7 +11248,7 @@
         <v>CN</v>
       </c>
       <c r="J100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -11261,12 +11265,12 @@
         <v>1.4724263777230009</v>
       </c>
       <c r="D101" s="2">
+        <f>[4]CNData!E5</f>
+        <v>1.4015155899016787</v>
+      </c>
+      <c r="E101" s="2">
         <f>[4]CNData!D5</f>
         <v>1.0500601894496036</v>
-      </c>
-      <c r="E101" s="2">
-        <f>[4]CNData!E5</f>
-        <v>1.4015155899016787</v>
       </c>
       <c r="F101" s="2">
         <f>[4]CNData!F5</f>
@@ -11285,7 +11289,7 @@
         <v>CN</v>
       </c>
       <c r="J101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -11302,12 +11306,12 @@
         <v>1.6329207640515988</v>
       </c>
       <c r="D102" s="2">
+        <f>[4]CNData!E6</f>
+        <v>1.5763081892356818</v>
+      </c>
+      <c r="E102" s="2">
         <f>[4]CNData!D6</f>
         <v>1.0615313944873461</v>
-      </c>
-      <c r="E102" s="2">
-        <f>[4]CNData!E6</f>
-        <v>1.5763081892356818</v>
       </c>
       <c r="F102" s="2">
         <f>[4]CNData!F6</f>
@@ -11326,7 +11330,7 @@
         <v>CN</v>
       </c>
       <c r="J102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -11343,12 +11347,12 @@
         <v>1.7962145824804676</v>
       </c>
       <c r="D103" s="2">
+        <f>[4]CNData!E7</f>
+        <v>1.7664083693248671</v>
+      </c>
+      <c r="E103" s="2">
         <f>[4]CNData!D7</f>
         <v>1.0727162591170047</v>
-      </c>
-      <c r="E103" s="2">
-        <f>[4]CNData!E7</f>
-        <v>1.7664083693248671</v>
       </c>
       <c r="F103" s="2">
         <f>[4]CNData!F7</f>
@@ -11367,7 +11371,7 @@
         <v>CN</v>
       </c>
       <c r="J103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -11384,12 +11388,12 @@
         <v>1.9632624620021077</v>
       </c>
       <c r="D104" s="2">
+        <f>[4]CNData!E8</f>
+        <v>1.9674541842240472</v>
+      </c>
+      <c r="E104" s="2">
         <f>[4]CNData!D8</f>
         <v>1.0837513477171361</v>
-      </c>
-      <c r="E104" s="2">
-        <f>[4]CNData!E8</f>
-        <v>1.9674541842240472</v>
       </c>
       <c r="F104" s="2">
         <f>[4]CNData!F8</f>
@@ -11408,7 +11412,7 @@
         <v>CN</v>
       </c>
       <c r="J104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -11425,12 +11429,12 @@
         <v>2.116396798160423</v>
       </c>
       <c r="D105" s="2">
+        <f>[4]CNData!E9</f>
+        <v>2.1905964336379244</v>
+      </c>
+      <c r="E105" s="2">
         <f>[4]CNData!D9</f>
         <v>1.0944003938069702</v>
-      </c>
-      <c r="E105" s="2">
-        <f>[4]CNData!E9</f>
-        <v>2.1905964336379244</v>
       </c>
       <c r="F105" s="2">
         <f>[4]CNData!F9</f>
@@ -11449,7 +11453,7 @@
         <v>CN</v>
       </c>
       <c r="J105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -11466,12 +11470,12 @@
         <v>2.2772413312545186</v>
       </c>
       <c r="D106" s="2">
+        <f>[4]CNData!E10</f>
+        <v>2.422423120154733</v>
+      </c>
+      <c r="E106" s="2">
         <f>[4]CNData!D10</f>
         <v>1.1039174170433839</v>
-      </c>
-      <c r="E106" s="2">
-        <f>[4]CNData!E10</f>
-        <v>2.422423120154733</v>
       </c>
       <c r="F106" s="2">
         <f>[4]CNData!F10</f>
@@ -11490,7 +11494,7 @@
         <v>CN</v>
       </c>
       <c r="J106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -11507,12 +11511,12 @@
         <v>2.4685312127098049</v>
       </c>
       <c r="D107" s="2">
+        <f>[4]CNData!E11</f>
+        <v>2.6766750310816048</v>
+      </c>
+      <c r="E107" s="2">
         <f>[4]CNData!D11</f>
         <v>1.1276859801371437</v>
-      </c>
-      <c r="E107" s="2">
-        <f>[4]CNData!E11</f>
-        <v>2.6766750310816048</v>
       </c>
       <c r="F107" s="2">
         <f>[4]CNData!F11</f>
@@ -11531,7 +11535,7 @@
         <v>CN</v>
       </c>
       <c r="J107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -11548,12 +11552,12 @@
         <v>2.6734193312370982</v>
       </c>
       <c r="D108" s="2">
+        <f>[4]CNData!E12</f>
+        <v>2.951721368537525</v>
+      </c>
+      <c r="E108" s="2">
         <f>[4]CNData!D12</f>
         <v>1.1205569990209538</v>
-      </c>
-      <c r="E108" s="2">
-        <f>[4]CNData!E12</f>
-        <v>2.951721368537525</v>
       </c>
       <c r="F108" s="2">
         <f>[4]CNData!F12</f>
@@ -11572,7 +11576,7 @@
         <v>CN</v>
       </c>
       <c r="J108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -11589,12 +11593,12 @@
         <v>2.9166999102857791</v>
       </c>
       <c r="D109" s="2">
+        <f>[4]CNData!E13</f>
+        <v>3.2685310368893497</v>
+      </c>
+      <c r="E109" s="2">
         <f>[4]CNData!D13</f>
         <v>1.1431311323141213</v>
-      </c>
-      <c r="E109" s="2">
-        <f>[4]CNData!E13</f>
-        <v>3.2685310368893497</v>
       </c>
       <c r="F109" s="2">
         <f>[4]CNData!F13</f>
@@ -11613,7 +11617,7 @@
         <v>CN</v>
       </c>
       <c r="J109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -11630,12 +11634,12 @@
         <v>3.2083704239214694</v>
       </c>
       <c r="D110" s="2">
+        <f>[4]CNData!E14</f>
+        <v>3.6488637897989209</v>
+      </c>
+      <c r="E110" s="2">
         <f>[4]CNData!D14</f>
         <v>1.1654086471462513</v>
-      </c>
-      <c r="E110" s="2">
-        <f>[4]CNData!E14</f>
-        <v>3.6488637897989209</v>
       </c>
       <c r="F110" s="2">
         <f>[4]CNData!F14</f>
@@ -11654,7 +11658,7 @@
         <v>CN</v>
       </c>
       <c r="J110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -11671,12 +11675,12 @@
         <v>3.5324147061641509</v>
       </c>
       <c r="D111" s="2">
+        <f>[4]CNData!E15</f>
+        <v>4.0734919941852414</v>
+      </c>
+      <c r="E111" s="2">
         <f>[4]CNData!D15</f>
         <v>1.15629138497367</v>
-      </c>
-      <c r="E111" s="2">
-        <f>[4]CNData!E15</f>
-        <v>4.0734919941852414</v>
       </c>
       <c r="F111" s="2">
         <f>[4]CNData!F15</f>
@@ -11695,7 +11699,7 @@
         <v>CN</v>
       </c>
       <c r="J111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -11712,12 +11716,12 @@
         <v>3.9315785347838585</v>
       </c>
       <c r="D112" s="2">
+        <f>[4]CNData!E16</f>
+        <v>4.547123044576896</v>
+      </c>
+      <c r="E112" s="2">
         <f>[4]CNData!D16</f>
         <v>1.17821720919724</v>
-      </c>
-      <c r="E112" s="2">
-        <f>[4]CNData!E16</f>
-        <v>4.547123044576896</v>
       </c>
       <c r="F112" s="2">
         <f>[4]CNData!F16</f>
@@ -11736,7 +11740,7 @@
         <v>CN</v>
       </c>
       <c r="J112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -11753,12 +11757,12 @@
         <v>4.4308878223832631</v>
       </c>
       <c r="D113" s="2">
+        <f>[4]CNData!E17</f>
+        <v>5.0819993231312024</v>
+      </c>
+      <c r="E113" s="2">
         <f>[4]CNData!D17</f>
         <v>1.2000044028108472</v>
-      </c>
-      <c r="E113" s="2">
-        <f>[4]CNData!E17</f>
-        <v>5.0819993231312024</v>
       </c>
       <c r="F113" s="2">
         <f>[4]CNData!F17</f>
@@ -11777,7 +11781,7 @@
         <v>CN</v>
       </c>
       <c r="J113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -11794,12 +11798,12 @@
         <v>5.0600736876028884</v>
       </c>
       <c r="D114" s="2">
+        <f>[4]CNData!E18</f>
+        <v>5.6910146543848299</v>
+      </c>
+      <c r="E114" s="2">
         <f>[4]CNData!D18</f>
         <v>1.2062880828655347</v>
-      </c>
-      <c r="E114" s="2">
-        <f>[4]CNData!E18</f>
-        <v>5.6910146543848299</v>
       </c>
       <c r="F114" s="2">
         <f>[4]CNData!F18</f>
@@ -11818,7 +11822,7 @@
         <v>CN</v>
       </c>
       <c r="J114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -11835,12 +11839,12 @@
         <v>5.5458422249126809</v>
       </c>
       <c r="D115" s="2">
+        <f>[4]CNData!E19</f>
+        <v>6.3511651437118717</v>
+      </c>
+      <c r="E115" s="2">
         <f>[4]CNData!D19</f>
         <v>1.210779484188824</v>
-      </c>
-      <c r="E115" s="2">
-        <f>[4]CNData!E19</f>
-        <v>6.3511651437118717</v>
       </c>
       <c r="F115" s="2">
         <f>[4]CNData!F19</f>
@@ -11859,7 +11863,7 @@
         <v>CN</v>
       </c>
       <c r="J115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -11876,12 +11880,12 @@
         <v>6.056058322953775</v>
       </c>
       <c r="D116" s="2">
+        <f>[4]CNData!E20</f>
+        <v>7.2033298087056554</v>
+      </c>
+      <c r="E116" s="2">
         <f>[4]CNData!D20</f>
         <v>1.2168166776415095</v>
-      </c>
-      <c r="E116" s="2">
-        <f>[4]CNData!E20</f>
-        <v>7.2033298087056554</v>
       </c>
       <c r="F116" s="2">
         <f>[4]CNData!F20</f>
@@ -11900,7 +11904,7 @@
         <v>CN</v>
       </c>
       <c r="J116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -11917,12 +11921,12 @@
         <v>6.6844602775043764</v>
       </c>
       <c r="D117" s="2">
+        <f>[4]CNData!E21</f>
+        <v>8.1441590255894987</v>
+      </c>
+      <c r="E117" s="2">
         <f>[4]CNData!D21</f>
         <v>1.2379914718068841</v>
-      </c>
-      <c r="E117" s="2">
-        <f>[4]CNData!E21</f>
-        <v>8.1441590255894987</v>
       </c>
       <c r="F117" s="2">
         <f>[4]CNData!F21</f>
@@ -11941,7 +11945,7 @@
         <v>CN</v>
       </c>
       <c r="J117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -11958,12 +11962,12 @@
         <v>7.3012882265327628</v>
       </c>
       <c r="D118" s="2">
+        <f>[4]CNData!E22</f>
+        <v>9.189646888420107</v>
+      </c>
+      <c r="E118" s="2">
         <f>[4]CNData!D22</f>
         <v>1.2439375467074505</v>
-      </c>
-      <c r="E118" s="2">
-        <f>[4]CNData!E22</f>
-        <v>9.189646888420107</v>
       </c>
       <c r="F118" s="2">
         <f>[4]CNData!F22</f>
@@ -11982,7 +11986,7 @@
         <v>CN</v>
       </c>
       <c r="J118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -11999,11 +12003,11 @@
         <v>1</v>
       </c>
       <c r="D119" s="2">
+        <f>[5]ZAData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E119" s="2">
         <f>[5]ZAData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E119" s="2">
-        <f>[5]ZAData!E2</f>
         <v>1</v>
       </c>
       <c r="F119" s="2">
@@ -12023,7 +12027,7 @@
         <v>ZA</v>
       </c>
       <c r="J119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -12040,12 +12044,12 @@
         <v>0.97862669417140025</v>
       </c>
       <c r="D120" s="2">
+        <f>[5]ZAData!E3</f>
+        <v>1.0012022581544466</v>
+      </c>
+      <c r="E120" s="2">
         <f>[5]ZAData!D3</f>
         <v>1.0210845372255797</v>
-      </c>
-      <c r="E120" s="2">
-        <f>[5]ZAData!E3</f>
-        <v>1.0012022581544466</v>
       </c>
       <c r="F120" s="2">
         <f>[5]ZAData!F3</f>
@@ -12064,7 +12068,7 @@
         <v>ZA</v>
       </c>
       <c r="J120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -12081,12 +12085,12 @@
         <v>0.99070237553418483</v>
       </c>
       <c r="D121" s="2">
+        <f>[5]ZAData!E4</f>
+        <v>1.0019236130471145</v>
+      </c>
+      <c r="E121" s="2">
         <f>[5]ZAData!D4</f>
         <v>1.0596971632483345</v>
-      </c>
-      <c r="E121" s="2">
-        <f>[5]ZAData!E4</f>
-        <v>1.0019236130471145</v>
       </c>
       <c r="F121" s="2">
         <f>[5]ZAData!F4</f>
@@ -12105,7 +12109,7 @@
         <v>ZA</v>
       </c>
       <c r="J121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -12122,12 +12126,12 @@
         <v>1.0227386912396637</v>
       </c>
       <c r="D122" s="2">
+        <f>[5]ZAData!E5</f>
+        <v>1.0084332311123501</v>
+      </c>
+      <c r="E122" s="2">
         <f>[5]ZAData!D5</f>
         <v>1.1703636576487721</v>
-      </c>
-      <c r="E122" s="2">
-        <f>[5]ZAData!E5</f>
-        <v>1.0084332311123501</v>
       </c>
       <c r="F122" s="2">
         <f>[5]ZAData!F5</f>
@@ -12146,7 +12150,7 @@
         <v>ZA</v>
       </c>
       <c r="J122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -12163,12 +12167,12 @@
         <v>1.0546035949238399</v>
       </c>
       <c r="D123" s="2">
+        <f>[5]ZAData!E6</f>
+        <v>1.0226826038472261</v>
+      </c>
+      <c r="E123" s="2">
         <f>[5]ZAData!D6</f>
         <v>1.2756746133563346</v>
-      </c>
-      <c r="E123" s="2">
-        <f>[5]ZAData!E6</f>
-        <v>1.0226826038472261</v>
       </c>
       <c r="F123" s="2">
         <f>[5]ZAData!F6</f>
@@ -12187,7 +12191,7 @@
         <v>ZA</v>
       </c>
       <c r="J123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -12204,12 +12208,12 @@
         <v>1.1000277805689698</v>
       </c>
       <c r="D124" s="2">
+        <f>[5]ZAData!E7</f>
+        <v>1.0435775020908837</v>
+      </c>
+      <c r="E124" s="2">
         <f>[5]ZAData!D7</f>
         <v>1.2422655192765304</v>
-      </c>
-      <c r="E124" s="2">
-        <f>[5]ZAData!E7</f>
-        <v>1.0435775020908837</v>
       </c>
       <c r="F124" s="2">
         <f>[5]ZAData!F7</f>
@@ -12228,7 +12232,7 @@
         <v>ZA</v>
       </c>
       <c r="J124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -12245,12 +12249,12 @@
         <v>1.1291382703935975</v>
       </c>
       <c r="D125" s="2">
+        <f>[5]ZAData!E8</f>
+        <v>1.0683196264287707</v>
+      </c>
+      <c r="E125" s="2">
         <f>[5]ZAData!D8</f>
         <v>1.2908777146337129</v>
-      </c>
-      <c r="E125" s="2">
-        <f>[5]ZAData!E8</f>
-        <v>1.0683196264287707</v>
       </c>
       <c r="F125" s="2">
         <f>[5]ZAData!F8</f>
@@ -12269,7 +12273,7 @@
         <v>ZA</v>
       </c>
       <c r="J125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -12286,12 +12290,12 @@
         <v>1.134984011395944</v>
       </c>
       <c r="D126" s="2">
+        <f>[5]ZAData!E9</f>
+        <v>1.0959889880122664</v>
+      </c>
+      <c r="E126" s="2">
         <f>[5]ZAData!D9</f>
         <v>1.2885477532298402</v>
-      </c>
-      <c r="E126" s="2">
-        <f>[5]ZAData!E9</f>
-        <v>1.0959889880122664</v>
       </c>
       <c r="F126" s="2">
         <f>[5]ZAData!F9</f>
@@ -12310,7 +12314,7 @@
         <v>ZA</v>
       </c>
       <c r="J126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -12327,12 +12331,12 @@
         <v>1.1617479297565358</v>
       </c>
       <c r="D127" s="2">
+        <f>[5]ZAData!E10</f>
+        <v>1.1139392249790911</v>
+      </c>
+      <c r="E127" s="2">
         <f>[5]ZAData!D10</f>
         <v>1.3403410507390767</v>
-      </c>
-      <c r="E127" s="2">
-        <f>[5]ZAData!E10</f>
-        <v>1.1139392249790911</v>
       </c>
       <c r="F127" s="2">
         <f>[5]ZAData!F10</f>
@@ -12351,7 +12355,7 @@
         <v>ZA</v>
       </c>
       <c r="J127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -12368,12 +12372,12 @@
         <v>1.2100092798921878</v>
       </c>
       <c r="D128" s="2">
+        <f>[5]ZAData!E11</f>
+        <v>1.1342939782548089</v>
+      </c>
+      <c r="E128" s="2">
         <f>[5]ZAData!D11</f>
         <v>1.3387269646993742</v>
-      </c>
-      <c r="E128" s="2">
-        <f>[5]ZAData!E11</f>
-        <v>1.1342939782548089</v>
       </c>
       <c r="F128" s="2">
         <f>[5]ZAData!F11</f>
@@ -12392,7 +12396,7 @@
         <v>ZA</v>
       </c>
       <c r="J128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -12409,12 +12413,12 @@
         <v>1.2431095322816121</v>
       </c>
       <c r="D129" s="2">
+        <f>[5]ZAData!E12</f>
+        <v>1.1560252299972122</v>
+      </c>
+      <c r="E129" s="2">
         <f>[5]ZAData!D12</f>
         <v>1.3506065409001882</v>
-      </c>
-      <c r="E129" s="2">
-        <f>[5]ZAData!E12</f>
-        <v>1.1560252299972122</v>
       </c>
       <c r="F129" s="2">
         <f>[5]ZAData!F12</f>
@@ -12433,7 +12437,7 @@
         <v>ZA</v>
       </c>
       <c r="J129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -12450,12 +12454,12 @@
         <v>1.2887051299480443</v>
       </c>
       <c r="D130" s="2">
+        <f>[5]ZAData!E13</f>
+        <v>1.1797672149428491</v>
+      </c>
+      <c r="E130" s="2">
         <f>[5]ZAData!D13</f>
         <v>1.3693591756939629</v>
-      </c>
-      <c r="E130" s="2">
-        <f>[5]ZAData!E13</f>
-        <v>1.1797672149428491</v>
       </c>
       <c r="F130" s="2">
         <f>[5]ZAData!F13</f>
@@ -12474,7 +12478,7 @@
         <v>ZA</v>
       </c>
       <c r="J130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -12491,12 +12495,12 @@
         <v>1.32671131260233</v>
       </c>
       <c r="D131" s="2">
+        <f>[5]ZAData!E14</f>
+        <v>1.2125627265124059</v>
+      </c>
+      <c r="E131" s="2">
         <f>[5]ZAData!D14</f>
         <v>1.4075982751540539</v>
-      </c>
-      <c r="E131" s="2">
-        <f>[5]ZAData!E14</f>
-        <v>1.2125627265124059</v>
       </c>
       <c r="F131" s="2">
         <f>[5]ZAData!F14</f>
@@ -12515,7 +12519,7 @@
         <v>ZA</v>
       </c>
       <c r="J131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -12532,12 +12536,12 @@
         <v>1.3871370054910954</v>
       </c>
       <c r="D132" s="2">
+        <f>[5]ZAData!E15</f>
+        <v>1.2579174797881238</v>
+      </c>
+      <c r="E132" s="2">
         <f>[5]ZAData!D15</f>
         <v>1.5013240843352373</v>
-      </c>
-      <c r="E132" s="2">
-        <f>[5]ZAData!E15</f>
-        <v>1.2579174797881238</v>
       </c>
       <c r="F132" s="2">
         <f>[5]ZAData!F15</f>
@@ -12556,7 +12560,7 @@
         <v>ZA</v>
       </c>
       <c r="J132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -12573,12 +12577,12 @@
         <v>1.4603358493465655</v>
       </c>
       <c r="D133" s="2">
+        <f>[5]ZAData!E16</f>
+        <v>1.314402704209646</v>
+      </c>
+      <c r="E133" s="2">
         <f>[5]ZAData!D16</f>
         <v>1.5184945387359419</v>
-      </c>
-      <c r="E133" s="2">
-        <f>[5]ZAData!E16</f>
-        <v>1.314402704209646</v>
       </c>
       <c r="F133" s="2">
         <f>[5]ZAData!F16</f>
@@ -12597,7 +12601,7 @@
         <v>ZA</v>
       </c>
       <c r="J133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -12614,12 +12618,12 @@
         <v>1.5421703126200623</v>
       </c>
       <c r="D134" s="2">
+        <f>[5]ZAData!E17</f>
+        <v>1.3844891274045164</v>
+      </c>
+      <c r="E134" s="2">
         <f>[5]ZAData!D17</f>
         <v>1.5981624531196261</v>
-      </c>
-      <c r="E134" s="2">
-        <f>[5]ZAData!E17</f>
-        <v>1.3844891274045164</v>
       </c>
       <c r="F134" s="2">
         <f>[5]ZAData!F17</f>
@@ -12638,7 +12642,7 @@
         <v>ZA</v>
       </c>
       <c r="J134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -12655,12 +12659,12 @@
         <v>1.6267710112718181</v>
       </c>
       <c r="D135" s="2">
+        <f>[5]ZAData!E18</f>
+        <v>1.4726303317535545</v>
+      </c>
+      <c r="E135" s="2">
         <f>[5]ZAData!D18</f>
         <v>1.6965748742426201</v>
-      </c>
-      <c r="E135" s="2">
-        <f>[5]ZAData!E18</f>
-        <v>1.4726303317535545</v>
       </c>
       <c r="F135" s="2">
         <f>[5]ZAData!F18</f>
@@ -12679,7 +12683,7 @@
         <v>ZA</v>
       </c>
       <c r="J135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -12696,12 +12700,12 @@
         <v>1.6866174497437685</v>
       </c>
       <c r="D136" s="2">
+        <f>[5]ZAData!E19</f>
+        <v>1.576303317535545</v>
+      </c>
+      <c r="E136" s="2">
         <f>[5]ZAData!D19</f>
         <v>1.7562529911543718</v>
-      </c>
-      <c r="E136" s="2">
-        <f>[5]ZAData!E19</f>
-        <v>1.576303317535545</v>
       </c>
       <c r="F136" s="2">
         <f>[5]ZAData!F19</f>
@@ -12720,7 +12724,7 @@
         <v>ZA</v>
       </c>
       <c r="J136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -12737,12 +12741,12 @@
         <v>1.6613193997032798</v>
       </c>
       <c r="D137" s="2">
+        <f>[5]ZAData!E20</f>
+        <v>1.6803038751045443</v>
+      </c>
+      <c r="E137" s="2">
         <f>[5]ZAData!D20</f>
         <v>1.7171889548231813</v>
-      </c>
-      <c r="E137" s="2">
-        <f>[5]ZAData!E20</f>
-        <v>1.6803038751045443</v>
       </c>
       <c r="F137" s="2">
         <f>[5]ZAData!F20</f>
@@ -12761,7 +12765,7 @@
         <v>ZA</v>
       </c>
       <c r="J137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -12778,12 +12782,12 @@
         <v>1.7094979992079582</v>
       </c>
       <c r="D138" s="2">
+        <f>[5]ZAData!E21</f>
+        <v>1.7923264566490102</v>
+      </c>
+      <c r="E138" s="2">
         <f>[5]ZAData!D21</f>
         <v>1.6556513331525751</v>
-      </c>
-      <c r="E138" s="2">
-        <f>[5]ZAData!E21</f>
-        <v>1.7923264566490102</v>
       </c>
       <c r="F138" s="2">
         <f>[5]ZAData!F21</f>
@@ -12802,7 +12806,7 @@
         <v>ZA</v>
       </c>
       <c r="J138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -12819,12 +12823,12 @@
         <v>1.7624879568278136</v>
       </c>
       <c r="D139" s="2">
+        <f>[5]ZAData!E22</f>
+        <v>1.9066211318650683</v>
+      </c>
+      <c r="E139" s="2">
         <f>[5]ZAData!D22</f>
         <v>1.6753721769416801</v>
-      </c>
-      <c r="E139" s="2">
-        <f>[5]ZAData!E22</f>
-        <v>1.9066211318650683</v>
       </c>
       <c r="F139" s="2">
         <f>[5]ZAData!F22</f>
@@ -12843,7 +12847,7 @@
         <v>ZA</v>
       </c>
       <c r="J139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -12860,11 +12864,11 @@
         <v>1</v>
       </c>
       <c r="D140" s="2">
+        <f>[6]SAData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2">
         <f>[6]SAData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E140" s="2">
-        <f>[6]SAData!E2</f>
         <v>1</v>
       </c>
       <c r="F140" s="2">
@@ -12884,7 +12888,7 @@
         <v>SA</v>
       </c>
       <c r="J140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -12901,12 +12905,12 @@
         <v>1.0462856254344566</v>
       </c>
       <c r="D141" s="2">
+        <f>[6]SAData!E3</f>
+        <v>1.0598546016298735</v>
+      </c>
+      <c r="E141" s="2">
         <f>[6]SAData!D3</f>
         <v>1.0492432778224892</v>
-      </c>
-      <c r="E141" s="2">
-        <f>[6]SAData!E3</f>
-        <v>1.0598546016298735</v>
       </c>
       <c r="F141" s="2">
         <f>[6]SAData!F3</f>
@@ -12925,7 +12929,7 @@
         <v>SA</v>
       </c>
       <c r="J141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -12942,12 +12946,12 @@
         <v>1.0465554457981194</v>
       </c>
       <c r="D142" s="2">
+        <f>[6]SAData!E4</f>
+        <v>1.116506736173992</v>
+      </c>
+      <c r="E142" s="2">
         <f>[6]SAData!D4</f>
         <v>1.0791929259786623</v>
-      </c>
-      <c r="E142" s="2">
-        <f>[6]SAData!E4</f>
-        <v>1.116506736173992</v>
       </c>
       <c r="F142" s="2">
         <f>[6]SAData!F4</f>
@@ -12966,7 +12970,7 @@
         <v>SA</v>
       </c>
       <c r="J142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -12983,12 +12987,12 @@
         <v>1.0535250429883292</v>
       </c>
       <c r="D143" s="2">
+        <f>[6]SAData!E5</f>
+        <v>1.1702659465214034</v>
+      </c>
+      <c r="E143" s="2">
         <f>[6]SAData!D5</f>
         <v>1.1059442002517592</v>
-      </c>
-      <c r="E143" s="2">
-        <f>[6]SAData!E5</f>
-        <v>1.1702659465214034</v>
       </c>
       <c r="F143" s="2">
         <f>[6]SAData!F5</f>
@@ -13007,7 +13011,7 @@
         <v>SA</v>
       </c>
       <c r="J143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -13024,12 +13028,12 @@
         <v>1.0556378736326053</v>
       </c>
       <c r="D144" s="2">
+        <f>[6]SAData!E6</f>
+        <v>1.2187947499211678</v>
+      </c>
+      <c r="E144" s="2">
         <f>[6]SAData!D6</f>
         <v>1.1257132833942096</v>
-      </c>
-      <c r="E144" s="2">
-        <f>[6]SAData!E6</f>
-        <v>1.2187947499211678</v>
       </c>
       <c r="F144" s="2">
         <f>[6]SAData!F6</f>
@@ -13048,7 +13052,7 @@
         <v>SA</v>
       </c>
       <c r="J144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -13065,12 +13069,12 @@
         <v>1.091359345845681</v>
       </c>
       <c r="D145" s="2">
+        <f>[6]SAData!E7</f>
+        <v>1.2542562147244056</v>
+      </c>
+      <c r="E145" s="2">
         <f>[6]SAData!D7</f>
         <v>1.1207759136589694</v>
-      </c>
-      <c r="E145" s="2">
-        <f>[6]SAData!E7</f>
-        <v>1.2542562147244056</v>
       </c>
       <c r="F145" s="2">
         <f>[6]SAData!F7</f>
@@ -13089,7 +13093,7 @@
         <v>SA</v>
       </c>
       <c r="J145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -13106,12 +13110,12 @@
         <v>1.1196538982182709</v>
       </c>
       <c r="D146" s="2">
+        <f>[6]SAData!E8</f>
+        <v>1.2887861579363036</v>
+      </c>
+      <c r="E146" s="2">
         <f>[6]SAData!D8</f>
         <v>1.088430013000681</v>
-      </c>
-      <c r="E146" s="2">
-        <f>[6]SAData!E8</f>
-        <v>1.2887861579363036</v>
       </c>
       <c r="F146" s="2">
         <f>[6]SAData!F8</f>
@@ -13130,7 +13134,7 @@
         <v>SA</v>
       </c>
       <c r="J146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -13147,12 +13151,12 @@
         <v>1.1513920901474408</v>
       </c>
       <c r="D147" s="2">
+        <f>[6]SAData!E9</f>
+        <v>1.3288676226816829</v>
+      </c>
+      <c r="E147" s="2">
         <f>[6]SAData!D9</f>
         <v>1.0967694339544769</v>
-      </c>
-      <c r="E147" s="2">
-        <f>[6]SAData!E9</f>
-        <v>1.3288676226816829</v>
       </c>
       <c r="F147" s="2">
         <f>[6]SAData!F9</f>
@@ -13171,7 +13175,7 @@
         <v>SA</v>
       </c>
       <c r="J147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -13188,12 +13192,12 @@
         <v>1.1427761314162368</v>
       </c>
       <c r="D148" s="2">
+        <f>[6]SAData!E10</f>
+        <v>1.3774051048540374</v>
+      </c>
+      <c r="E148" s="2">
         <f>[6]SAData!D10</f>
         <v>1.1337101467219712</v>
-      </c>
-      <c r="E148" s="2">
-        <f>[6]SAData!E10</f>
-        <v>1.3774051048540374</v>
       </c>
       <c r="F148" s="2">
         <f>[6]SAData!F10</f>
@@ -13212,7 +13216,7 @@
         <v>SA</v>
       </c>
       <c r="J148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -13229,12 +13233,12 @@
         <v>1.1983682727838145</v>
       </c>
       <c r="D149" s="2">
+        <f>[6]SAData!E11</f>
+        <v>1.4293099507913594</v>
+      </c>
+      <c r="E149" s="2">
         <f>[6]SAData!D11</f>
         <v>1.1607140056542644</v>
-      </c>
-      <c r="E149" s="2">
-        <f>[6]SAData!E11</f>
-        <v>1.4293099507913594</v>
       </c>
       <c r="F149" s="2">
         <f>[6]SAData!F11</f>
@@ -13253,7 +13257,7 @@
         <v>SA</v>
       </c>
       <c r="J149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -13270,12 +13274,12 @@
         <v>1.2049262795887754</v>
       </c>
       <c r="D150" s="2">
+        <f>[6]SAData!E12</f>
+        <v>1.4799043020675728</v>
+      </c>
+      <c r="E150" s="2">
         <f>[6]SAData!D12</f>
         <v>1.2171908211065023</v>
-      </c>
-      <c r="E150" s="2">
-        <f>[6]SAData!E12</f>
-        <v>1.4799043020675728</v>
       </c>
       <c r="F150" s="2">
         <f>[6]SAData!F12</f>
@@ -13294,7 +13298,7 @@
         <v>SA</v>
       </c>
       <c r="J150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -13311,12 +13315,12 @@
         <v>1.2064674569202063</v>
       </c>
       <c r="D151" s="2">
+        <f>[6]SAData!E13</f>
+        <v>1.5290116903066788</v>
+      </c>
+      <c r="E151" s="2">
         <f>[6]SAData!D13</f>
         <v>1.2835588848304753</v>
-      </c>
-      <c r="E151" s="2">
-        <f>[6]SAData!E13</f>
-        <v>1.5290116903066788</v>
       </c>
       <c r="F151" s="2">
         <f>[6]SAData!F13</f>
@@ -13335,7 +13339,7 @@
         <v>SA</v>
       </c>
       <c r="J151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -13352,12 +13356,12 @@
         <v>1.29887407163502</v>
       </c>
       <c r="D152" s="2">
+        <f>[6]SAData!E14</f>
+        <v>1.5999866925486952</v>
+      </c>
+      <c r="E152" s="2">
         <f>[6]SAData!D14</f>
         <v>1.4080253410099259</v>
-      </c>
-      <c r="E152" s="2">
-        <f>[6]SAData!E14</f>
-        <v>1.5999866925486952</v>
       </c>
       <c r="F152" s="2">
         <f>[6]SAData!F14</f>
@@ -13376,7 +13380,7 @@
         <v>SA</v>
       </c>
       <c r="J152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -13393,12 +13397,12 @@
         <v>1.3672849668898401</v>
       </c>
       <c r="D153" s="2">
+        <f>[6]SAData!E15</f>
+        <v>1.6704930410708447</v>
+      </c>
+      <c r="E153" s="2">
         <f>[6]SAData!D15</f>
         <v>1.517596524897336</v>
-      </c>
-      <c r="E153" s="2">
-        <f>[6]SAData!E15</f>
-        <v>1.6704930410708447</v>
       </c>
       <c r="F153" s="2">
         <f>[6]SAData!F15</f>
@@ -13417,7 +13421,7 @@
         <v>SA</v>
       </c>
       <c r="J153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -13434,12 +13438,12 @@
         <v>1.4432188197417042</v>
       </c>
       <c r="D154" s="2">
+        <f>[6]SAData!E16</f>
+        <v>1.769911274014887</v>
+      </c>
+      <c r="E154" s="2">
         <f>[6]SAData!D16</f>
         <v>1.5716845168080233</v>
-      </c>
-      <c r="E154" s="2">
-        <f>[6]SAData!E16</f>
-        <v>1.769911274014887</v>
       </c>
       <c r="F154" s="2">
         <f>[6]SAData!F16</f>
@@ -13458,7 +13462,7 @@
         <v>SA</v>
       </c>
       <c r="J154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -13475,12 +13479,12 @@
         <v>1.4887910218417297</v>
       </c>
       <c r="D155" s="2">
+        <f>[6]SAData!E17</f>
+        <v>1.8990427313833096</v>
+      </c>
+      <c r="E155" s="2">
         <f>[6]SAData!D17</f>
         <v>1.6458240987226316</v>
-      </c>
-      <c r="E155" s="2">
-        <f>[6]SAData!E17</f>
-        <v>1.8990427313833096</v>
       </c>
       <c r="F155" s="2">
         <f>[6]SAData!F17</f>
@@ -13499,7 +13503,7 @@
         <v>SA</v>
       </c>
       <c r="J155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -13516,12 +13520,12 @@
         <v>1.5188234002853693</v>
       </c>
       <c r="D156" s="2">
+        <f>[6]SAData!E18</f>
+        <v>2.065484232116666</v>
+      </c>
+      <c r="E156" s="2">
         <f>[6]SAData!D18</f>
         <v>1.7178569512371282</v>
-      </c>
-      <c r="E156" s="2">
-        <f>[6]SAData!E18</f>
-        <v>2.065484232116666</v>
       </c>
       <c r="F156" s="2">
         <f>[6]SAData!F18</f>
@@ -13540,7 +13544,7 @@
         <v>SA</v>
       </c>
       <c r="J156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -13557,12 +13561,12 @@
         <v>1.5830497932901622</v>
       </c>
       <c r="D157" s="2">
+        <f>[6]SAData!E19</f>
+        <v>2.2829800590735121</v>
+      </c>
+      <c r="E157" s="2">
         <f>[6]SAData!D19</f>
         <v>1.7883965826781403</v>
-      </c>
-      <c r="E157" s="2">
-        <f>[6]SAData!E19</f>
-        <v>2.2829800590735121</v>
       </c>
       <c r="F157" s="2">
         <f>[6]SAData!F19</f>
@@ -13581,7 +13585,7 @@
         <v>SA</v>
       </c>
       <c r="J157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -13598,12 +13602,12 @@
         <v>1.585551348187173</v>
       </c>
       <c r="D158" s="2">
+        <f>[6]SAData!E20</f>
+        <v>2.4182647662083312</v>
+      </c>
+      <c r="E158" s="2">
         <f>[6]SAData!D20</f>
         <v>1.794133803834169</v>
-      </c>
-      <c r="E158" s="2">
-        <f>[6]SAData!E20</f>
-        <v>2.4182647662083312</v>
       </c>
       <c r="F158" s="2">
         <f>[6]SAData!F20</f>
@@ -13622,7 +13626,7 @@
         <v>SA</v>
       </c>
       <c r="J158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -13639,12 +13643,12 @@
         <v>1.659024805180551</v>
       </c>
       <c r="D159" s="2">
+        <f>[6]SAData!E21</f>
+        <v>2.5547037500976364</v>
+      </c>
+      <c r="E159" s="2">
         <f>[6]SAData!D21</f>
         <v>1.8635176128273385</v>
-      </c>
-      <c r="E159" s="2">
-        <f>[6]SAData!E21</f>
-        <v>2.5547037500976364</v>
       </c>
       <c r="F159" s="2">
         <f>[6]SAData!F21</f>
@@ -13663,7 +13667,7 @@
         <v>SA</v>
       </c>
       <c r="J159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -13680,12 +13684,12 @@
         <v>1.7712426371053305</v>
       </c>
       <c r="D160" s="2">
+        <f>[6]SAData!E22</f>
+        <v>2.6944319887985975</v>
+      </c>
+      <c r="E160" s="2">
         <f>[6]SAData!D22</f>
         <v>1.9471582162240244</v>
-      </c>
-      <c r="E160" s="2">
-        <f>[6]SAData!E22</f>
-        <v>2.6944319887985975</v>
       </c>
       <c r="F160" s="2">
         <f>[6]SAData!F22</f>
@@ -13704,7 +13708,7 @@
         <v>SA</v>
       </c>
       <c r="J160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -13721,11 +13725,11 @@
         <v>1</v>
       </c>
       <c r="D161" s="2">
+        <f>[7]IRData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E161" s="2">
         <f>[7]IRData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E161" s="2">
-        <f>[7]IRData!E2</f>
         <v>1</v>
       </c>
       <c r="F161" s="2">
@@ -13745,7 +13749,7 @@
         <v>IR</v>
       </c>
       <c r="J161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -13762,12 +13766,12 @@
         <v>1.0425075890787252</v>
       </c>
       <c r="D162" s="2">
+        <f>[7]IRData!E3</f>
+        <v>1.0286817340947478</v>
+      </c>
+      <c r="E162" s="2">
         <f>[7]IRData!D3</f>
         <v>0.99232068769283399</v>
-      </c>
-      <c r="E162" s="2">
-        <f>[7]IRData!E3</f>
-        <v>1.0286817340947478</v>
       </c>
       <c r="F162" s="2">
         <f>[7]IRData!F3</f>
@@ -13786,7 +13790,7 @@
         <v>IR</v>
       </c>
       <c r="J162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -13803,12 +13807,12 @@
         <v>1.0260784365185593</v>
       </c>
       <c r="D163" s="2">
+        <f>[7]IRData!E4</f>
+        <v>1.0451808359473445</v>
+      </c>
+      <c r="E163" s="2">
         <f>[7]IRData!D4</f>
         <v>1.0258154760071143</v>
-      </c>
-      <c r="E163" s="2">
-        <f>[7]IRData!E4</f>
-        <v>1.0451808359473445</v>
       </c>
       <c r="F163" s="2">
         <f>[7]IRData!F4</f>
@@ -13827,7 +13831,7 @@
         <v>IR</v>
       </c>
       <c r="J163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -13844,12 +13848,12 @@
         <v>1.0224829191052323</v>
       </c>
       <c r="D164" s="2">
+        <f>[7]IRData!E5</f>
+        <v>1.0479449851202445</v>
+      </c>
+      <c r="E164" s="2">
         <f>[7]IRData!D5</f>
         <v>1.0326056645162756</v>
-      </c>
-      <c r="E164" s="2">
-        <f>[7]IRData!E5</f>
-        <v>1.0479449851202445</v>
       </c>
       <c r="F164" s="2">
         <f>[7]IRData!F5</f>
@@ -13868,7 +13872,7 @@
         <v>IR</v>
       </c>
       <c r="J164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -13885,12 +13889,12 @@
         <v>1.0496023935123218</v>
       </c>
       <c r="D165" s="2">
+        <f>[7]IRData!E6</f>
+        <v>1.0470682860130298</v>
+      </c>
+      <c r="E165" s="2">
         <f>[7]IRData!D6</f>
         <v>1.0676674443527505</v>
-      </c>
-      <c r="E165" s="2">
-        <f>[7]IRData!E6</f>
-        <v>1.0470682860130298</v>
       </c>
       <c r="F165" s="2">
         <f>[7]IRData!F6</f>
@@ -13909,7 +13913,7 @@
         <v>IR</v>
       </c>
       <c r="J165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -13926,12 +13930,12 @@
         <v>1.1241372070440647</v>
       </c>
       <c r="D166" s="2">
+        <f>[7]IRData!E7</f>
+        <v>1.0643931472693637</v>
+      </c>
+      <c r="E166" s="2">
         <f>[7]IRData!D7</f>
         <v>1.0762276118011567</v>
-      </c>
-      <c r="E166" s="2">
-        <f>[7]IRData!E7</f>
-        <v>1.0643931472693637</v>
       </c>
       <c r="F166" s="2">
         <f>[7]IRData!F7</f>
@@ -13950,7 +13954,7 @@
         <v>IR</v>
       </c>
       <c r="J166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -13967,12 +13971,12 @@
         <v>1.1621832051719463</v>
       </c>
       <c r="D167" s="2">
+        <f>[7]IRData!E8</f>
+        <v>1.09182283707338</v>
+      </c>
+      <c r="E167" s="2">
         <f>[7]IRData!D8</f>
         <v>1.1451202765298232</v>
-      </c>
-      <c r="E167" s="2">
-        <f>[7]IRData!E8</f>
-        <v>1.09182283707338</v>
       </c>
       <c r="F167" s="2">
         <f>[7]IRData!F8</f>
@@ -13991,7 +13995,7 @@
         <v>IR</v>
       </c>
       <c r="J167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -14008,12 +14012,12 @@
         <v>1.1940354652739504</v>
       </c>
       <c r="D168" s="2">
+        <f>[7]IRData!E9</f>
+        <v>1.1206413040564089</v>
+      </c>
+      <c r="E168" s="2">
         <f>[7]IRData!D9</f>
         <v>1.2057762242070602</v>
-      </c>
-      <c r="E168" s="2">
-        <f>[7]IRData!E9</f>
-        <v>1.1206413040564089</v>
       </c>
       <c r="F168" s="2">
         <f>[7]IRData!F9</f>
@@ -14032,7 +14036,7 @@
         <v>IR</v>
       </c>
       <c r="J168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -14049,12 +14053,12 @@
         <v>1.2171307596077299</v>
       </c>
       <c r="D169" s="2">
+        <f>[7]IRData!E10</f>
+        <v>1.1535537145767982</v>
+      </c>
+      <c r="E169" s="2">
         <f>[7]IRData!D10</f>
         <v>1.2474506596280401</v>
-      </c>
-      <c r="E169" s="2">
-        <f>[7]IRData!E10</f>
-        <v>1.1535537145767982</v>
       </c>
       <c r="F169" s="2">
         <f>[7]IRData!F10</f>
@@ -14073,7 +14077,7 @@
         <v>IR</v>
       </c>
       <c r="J169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -14090,12 +14094,12 @@
         <v>1.2797242561828028</v>
       </c>
       <c r="D170" s="2">
+        <f>[7]IRData!E11</f>
+        <v>1.1887396444944904</v>
+      </c>
+      <c r="E170" s="2">
         <f>[7]IRData!D11</f>
         <v>1.3427875425389963</v>
-      </c>
-      <c r="E170" s="2">
-        <f>[7]IRData!E11</f>
-        <v>1.1887396444944904</v>
       </c>
       <c r="F170" s="2">
         <f>[7]IRData!F11</f>
@@ -14114,7 +14118,7 @@
         <v>IR</v>
       </c>
       <c r="J170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -14131,12 +14135,12 @@
         <v>1.3266846879948211</v>
       </c>
       <c r="D171" s="2">
+        <f>[7]IRData!E12</f>
+        <v>1.2378857342019893</v>
+      </c>
+      <c r="E171" s="2">
         <f>[7]IRData!D12</f>
         <v>1.4046770603141765</v>
-      </c>
-      <c r="E171" s="2">
-        <f>[7]IRData!E12</f>
-        <v>1.2378857342019893</v>
       </c>
       <c r="F171" s="2">
         <f>[7]IRData!F12</f>
@@ -14155,7 +14159,7 @@
         <v>IR</v>
       </c>
       <c r="J171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -14172,12 +14176,12 @@
         <v>1.4263968716374038</v>
       </c>
       <c r="D172" s="2">
+        <f>[7]IRData!E13</f>
+        <v>1.2994879219282018</v>
+      </c>
+      <c r="E172" s="2">
         <f>[7]IRData!D13</f>
         <v>1.4662256175957016</v>
-      </c>
-      <c r="E172" s="2">
-        <f>[7]IRData!E13</f>
-        <v>1.2994879219282018</v>
       </c>
       <c r="F172" s="2">
         <f>[7]IRData!F13</f>
@@ -14196,7 +14200,7 @@
         <v>IR</v>
       </c>
       <c r="J172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -14213,12 +14217,12 @@
         <v>1.5278761952252229</v>
       </c>
       <c r="D173" s="2">
+        <f>[7]IRData!E14</f>
+        <v>1.3727713879728678</v>
+      </c>
+      <c r="E173" s="2">
         <f>[7]IRData!D14</f>
         <v>1.5669526919341685</v>
-      </c>
-      <c r="E173" s="2">
-        <f>[7]IRData!E14</f>
-        <v>1.3727713879728678</v>
       </c>
       <c r="F173" s="2">
         <f>[7]IRData!F14</f>
@@ -14237,7 +14241,7 @@
         <v>IR</v>
       </c>
       <c r="J173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -14254,12 +14258,12 @@
         <v>1.6055603670752083</v>
       </c>
       <c r="D174" s="2">
+        <f>[7]IRData!E15</f>
+        <v>1.4523552910265691</v>
+      </c>
+      <c r="E174" s="2">
         <f>[7]IRData!D15</f>
         <v>1.7123166506427665</v>
-      </c>
-      <c r="E174" s="2">
-        <f>[7]IRData!E15</f>
-        <v>1.4523552910265691</v>
       </c>
       <c r="F174" s="2">
         <f>[7]IRData!F15</f>
@@ -14278,7 +14282,7 @@
         <v>IR</v>
       </c>
       <c r="J174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -14295,12 +14299,12 @@
         <v>1.6797889929926777</v>
       </c>
       <c r="D175" s="2">
+        <f>[7]IRData!E16</f>
+        <v>1.5352797662135713</v>
+      </c>
+      <c r="E175" s="2">
         <f>[7]IRData!D16</f>
         <v>1.7569037609417837</v>
-      </c>
-      <c r="E175" s="2">
-        <f>[7]IRData!E16</f>
-        <v>1.5352797662135713</v>
       </c>
       <c r="F175" s="2">
         <f>[7]IRData!F16</f>
@@ -14319,7 +14323,7 @@
         <v>IR</v>
       </c>
       <c r="J175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -14336,12 +14340,12 @@
         <v>1.7787925710136561</v>
       </c>
       <c r="D176" s="2">
+        <f>[7]IRData!E17</f>
+        <v>1.618542052065739</v>
+      </c>
+      <c r="E176" s="2">
         <f>[7]IRData!D17</f>
         <v>1.7594397255454477</v>
-      </c>
-      <c r="E176" s="2">
-        <f>[7]IRData!E17</f>
-        <v>1.618542052065739</v>
       </c>
       <c r="F176" s="2">
         <f>[7]IRData!F17</f>
@@ -14360,7 +14364,7 @@
         <v>IR</v>
       </c>
       <c r="J176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -14377,12 +14381,12 @@
         <v>1.9179767122448801</v>
       </c>
       <c r="D177" s="2">
+        <f>[7]IRData!E18</f>
+        <v>1.7074130673744605</v>
+      </c>
+      <c r="E177" s="2">
         <f>[7]IRData!D18</f>
         <v>1.8044560764088737</v>
-      </c>
-      <c r="E177" s="2">
-        <f>[7]IRData!E18</f>
-        <v>1.7074130673744605</v>
       </c>
       <c r="F177" s="2">
         <f>[7]IRData!F18</f>
@@ -14401,7 +14405,7 @@
         <v>IR</v>
       </c>
       <c r="J177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -14418,12 +14422,12 @@
         <v>1.9620939733529292</v>
       </c>
       <c r="D178" s="2">
+        <f>[7]IRData!E19</f>
+        <v>1.8001715863696077</v>
+      </c>
+      <c r="E178" s="2">
         <f>[7]IRData!D19</f>
         <v>1.7369485738188386</v>
-      </c>
-      <c r="E178" s="2">
-        <f>[7]IRData!E19</f>
-        <v>1.8001715863696077</v>
       </c>
       <c r="F178" s="2">
         <f>[7]IRData!F19</f>
@@ -14442,7 +14446,7 @@
         <v>IR</v>
       </c>
       <c r="J178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -14459,12 +14463,12 @@
         <v>1.9974105276050005</v>
       </c>
       <c r="D179" s="2">
+        <f>[7]IRData!E20</f>
+        <v>1.8938657872865223</v>
+      </c>
+      <c r="E179" s="2">
         <f>[7]IRData!D20</f>
         <v>1.7804433297070139</v>
-      </c>
-      <c r="E179" s="2">
-        <f>[7]IRData!E20</f>
-        <v>1.8938657872865223</v>
       </c>
       <c r="F179" s="2">
         <f>[7]IRData!F20</f>
@@ -14483,7 +14487,7 @@
         <v>IR</v>
       </c>
       <c r="J179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -14500,12 +14504,12 @@
         <v>2.055533685011679</v>
       </c>
       <c r="D180" s="2">
+        <f>[7]IRData!E21</f>
+        <v>1.9875921606477385</v>
+      </c>
+      <c r="E180" s="2">
         <f>[7]IRData!D21</f>
         <v>1.8469810485629561</v>
-      </c>
-      <c r="E180" s="2">
-        <f>[7]IRData!E21</f>
-        <v>1.9875921606477385</v>
       </c>
       <c r="F180" s="2">
         <f>[7]IRData!F21</f>
@@ -14524,7 +14528,7 @@
         <v>IR</v>
       </c>
       <c r="J180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -14541,12 +14545,12 @@
         <v>2.097105214812482</v>
       </c>
       <c r="D181" s="2">
+        <f>[7]IRData!E22</f>
+        <v>2.0860746936915198</v>
+      </c>
+      <c r="E181" s="2">
         <f>[7]IRData!D22</f>
         <v>1.8675789210862097</v>
-      </c>
-      <c r="E181" s="2">
-        <f>[7]IRData!E22</f>
-        <v>2.0860746936915198</v>
       </c>
       <c r="F181" s="2">
         <f>[7]IRData!F22</f>
@@ -14565,7 +14569,7 @@
         <v>IR</v>
       </c>
       <c r="J181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -14582,11 +14586,11 @@
         <v>1</v>
       </c>
       <c r="D182" s="2">
+        <f>[8]TZData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E182" s="2">
         <f>[8]TZData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E182" s="2">
-        <f>[8]TZData!E2</f>
         <v>1</v>
       </c>
       <c r="F182" s="2">
@@ -14606,7 +14610,7 @@
         <v>TZ</v>
       </c>
       <c r="J182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -14623,12 +14627,12 @@
         <v>1.0059148264984228</v>
       </c>
       <c r="D183" s="2">
+        <f>[8]TZData!E3</f>
+        <v>1.0783058575938267</v>
+      </c>
+      <c r="E183" s="2">
         <f>[8]TZData!D3</f>
         <v>1.0210507892666114</v>
-      </c>
-      <c r="E183" s="2">
-        <f>[8]TZData!E3</f>
-        <v>1.0783058575938267</v>
       </c>
       <c r="F183" s="2">
         <f>[8]TZData!F3</f>
@@ -14647,7 +14651,7 @@
         <v>TZ</v>
       </c>
       <c r="J183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -14664,12 +14668,12 @@
         <v>1.0180073606729758</v>
       </c>
       <c r="D184" s="2">
+        <f>[8]TZData!E4</f>
+        <v>1.1341634514205541</v>
+      </c>
+      <c r="E184" s="2">
         <f>[8]TZData!D4</f>
         <v>1.0556153049806807</v>
-      </c>
-      <c r="E184" s="2">
-        <f>[8]TZData!E4</f>
-        <v>1.1341634514205541</v>
       </c>
       <c r="F184" s="2">
         <f>[8]TZData!F4</f>
@@ -14688,7 +14692,7 @@
         <v>TZ</v>
       </c>
       <c r="J184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -14705,12 +14709,12 @@
         <v>1.034043112513144</v>
       </c>
       <c r="D185" s="2">
+        <f>[8]TZData!E5</f>
+        <v>1.1878288319887758</v>
+      </c>
+      <c r="E185" s="2">
         <f>[8]TZData!D5</f>
         <v>1.109990783424907</v>
-      </c>
-      <c r="E185" s="2">
-        <f>[8]TZData!E5</f>
-        <v>1.1878288319887758</v>
       </c>
       <c r="F185" s="2">
         <f>[8]TZData!F5</f>
@@ -14729,7 +14733,7 @@
         <v>TZ</v>
       </c>
       <c r="J185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -14746,12 +14750,12 @@
         <v>1.0708464773922186</v>
       </c>
       <c r="D186" s="2">
+        <f>[8]TZData!E6</f>
+        <v>1.2178183093651351</v>
+      </c>
+      <c r="E186" s="2">
         <f>[8]TZData!D6</f>
         <v>1.1435800496446948</v>
-      </c>
-      <c r="E186" s="2">
-        <f>[8]TZData!E6</f>
-        <v>1.2178183093651351</v>
       </c>
       <c r="F186" s="2">
         <f>[8]TZData!F6</f>
@@ -14770,7 +14774,7 @@
         <v>TZ</v>
       </c>
       <c r="J186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -14787,12 +14791,12 @@
         <v>1.1196109358569926</v>
       </c>
       <c r="D187" s="2">
+        <f>[8]TZData!E7</f>
+        <v>1.2428095405121009</v>
+      </c>
+      <c r="E187" s="2">
         <f>[8]TZData!D7</f>
         <v>1.1756383833630537</v>
-      </c>
-      <c r="E187" s="2">
-        <f>[8]TZData!E7</f>
-        <v>1.2428095405121009</v>
       </c>
       <c r="F187" s="2">
         <f>[8]TZData!F7</f>
@@ -14811,7 +14815,7 @@
         <v>TZ</v>
       </c>
       <c r="J187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -14828,12 +14832,12 @@
         <v>1.159043112513144</v>
       </c>
       <c r="D188" s="2">
+        <f>[8]TZData!E8</f>
+        <v>1.2663977551736232</v>
+      </c>
+      <c r="E188" s="2">
         <f>[8]TZData!D8</f>
         <v>1.2065461808455302</v>
-      </c>
-      <c r="E188" s="2">
-        <f>[8]TZData!E8</f>
-        <v>1.2663977551736232</v>
       </c>
       <c r="F188" s="2">
         <f>[8]TZData!F8</f>
@@ -14852,7 +14856,7 @@
         <v>TZ</v>
       </c>
       <c r="J188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -14869,12 +14873,12 @@
         <v>1.2020241850683491</v>
       </c>
       <c r="D189" s="2">
+        <f>[8]TZData!E9</f>
+        <v>1.3040161346895827</v>
+      </c>
+      <c r="E189" s="2">
         <f>[8]TZData!D9</f>
         <v>1.2210962267236523</v>
-      </c>
-      <c r="E189" s="2">
-        <f>[8]TZData!E9</f>
-        <v>1.3040161346895827</v>
       </c>
       <c r="F189" s="2">
         <f>[8]TZData!F9</f>
@@ -14893,7 +14897,7 @@
         <v>TZ</v>
       </c>
       <c r="J189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -14910,12 +14914,12 @@
         <v>1.2602523659305993</v>
       </c>
       <c r="D190" s="2">
+        <f>[8]TZData!E10</f>
+        <v>1.3468081374956156</v>
+      </c>
+      <c r="E190" s="2">
         <f>[8]TZData!D10</f>
         <v>1.2515828553008392</v>
-      </c>
-      <c r="E190" s="2">
-        <f>[8]TZData!E10</f>
-        <v>1.3468081374956156</v>
       </c>
       <c r="F190" s="2">
         <f>[8]TZData!F10</f>
@@ -14934,7 +14938,7 @@
         <v>TZ</v>
       </c>
       <c r="J190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -14951,12 +14955,12 @@
         <v>1.3224237644584649</v>
       </c>
       <c r="D191" s="2">
+        <f>[8]TZData!E11</f>
+        <v>1.3944230094703614</v>
+      </c>
+      <c r="E191" s="2">
         <f>[8]TZData!D11</f>
         <v>1.2832842058633727</v>
-      </c>
-      <c r="E191" s="2">
-        <f>[8]TZData!E11</f>
-        <v>1.3944230094703614</v>
       </c>
       <c r="F191" s="2">
         <f>[8]TZData!F11</f>
@@ -14975,7 +14979,7 @@
         <v>TZ</v>
       </c>
       <c r="J191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -14992,12 +14996,12 @@
         <v>1.4016824395373291</v>
       </c>
       <c r="D192" s="2">
+        <f>[8]TZData!E12</f>
+        <v>1.4558049807085234</v>
+      </c>
+      <c r="E192" s="2">
         <f>[8]TZData!D12</f>
         <v>1.3164203438379856</v>
-      </c>
-      <c r="E192" s="2">
-        <f>[8]TZData!E12</f>
-        <v>1.4558049807085234</v>
       </c>
       <c r="F192" s="2">
         <f>[8]TZData!F12</f>
@@ -15016,7 +15020,7 @@
         <v>TZ</v>
       </c>
       <c r="J192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -15033,12 +15037,12 @@
         <v>1.5021030494216614</v>
       </c>
       <c r="D193" s="2">
+        <f>[8]TZData!E13</f>
+        <v>1.5255173623290075</v>
+      </c>
+      <c r="E193" s="2">
         <f>[8]TZData!D13</f>
         <v>1.3684775683268877</v>
-      </c>
-      <c r="E193" s="2">
-        <f>[8]TZData!E13</f>
-        <v>1.5255173623290075</v>
       </c>
       <c r="F193" s="2">
         <f>[8]TZData!F13</f>
@@ -15057,7 +15061,7 @@
         <v>TZ</v>
       </c>
       <c r="J193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -15074,12 +15078,12 @@
         <v>1.6055467928496319</v>
       </c>
       <c r="D194" s="2">
+        <f>[8]TZData!E14</f>
+        <v>1.6142581550333217</v>
+      </c>
+      <c r="E194" s="2">
         <f>[8]TZData!D14</f>
         <v>1.4229925461739017</v>
-      </c>
-      <c r="E194" s="2">
-        <f>[8]TZData!E14</f>
-        <v>1.6142581550333217</v>
       </c>
       <c r="F194" s="2">
         <f>[8]TZData!F14</f>
@@ -15098,7 +15102,7 @@
         <v>TZ</v>
       </c>
       <c r="J194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -15115,12 +15119,12 @@
         <v>1.7312039957939012</v>
       </c>
       <c r="D195" s="2">
+        <f>[8]TZData!E15</f>
+        <v>1.7172044896527534</v>
+      </c>
+      <c r="E195" s="2">
         <f>[8]TZData!D15</f>
         <v>1.4616215065169902</v>
-      </c>
-      <c r="E195" s="2">
-        <f>[8]TZData!E15</f>
-        <v>1.7172044896527534</v>
       </c>
       <c r="F195" s="2">
         <f>[8]TZData!F15</f>
@@ -15139,7 +15143,7 @@
         <v>TZ</v>
       </c>
       <c r="J195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -15156,12 +15160,12 @@
         <v>1.8588328075709779</v>
       </c>
       <c r="D196" s="2">
+        <f>[8]TZData!E16</f>
+        <v>1.8532094002104524</v>
+      </c>
+      <c r="E196" s="2">
         <f>[8]TZData!D16</f>
         <v>1.5020070732517863</v>
-      </c>
-      <c r="E196" s="2">
-        <f>[8]TZData!E16</f>
-        <v>1.8532094002104524</v>
       </c>
       <c r="F196" s="2">
         <f>[8]TZData!F16</f>
@@ -15180,7 +15184,7 @@
         <v>TZ</v>
       </c>
       <c r="J196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -15197,12 +15201,12 @@
         <v>1.9840956887486856</v>
       </c>
       <c r="D197" s="2">
+        <f>[8]TZData!E17</f>
+        <v>2.0208698702209751</v>
+      </c>
+      <c r="E197" s="2">
         <f>[8]TZData!D17</f>
         <v>1.5442688936005917</v>
-      </c>
-      <c r="E197" s="2">
-        <f>[8]TZData!E17</f>
-        <v>2.0208698702209751</v>
       </c>
       <c r="F197" s="2">
         <f>[8]TZData!F17</f>
@@ -15221,7 +15225,7 @@
         <v>TZ</v>
       </c>
       <c r="J197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -15238,12 +15242,12 @@
         <v>2.1259200841219767</v>
       </c>
       <c r="D198" s="2">
+        <f>[8]TZData!E18</f>
+        <v>2.2198351455629606</v>
+      </c>
+      <c r="E198" s="2">
         <f>[8]TZData!D18</f>
         <v>1.5885417487349576</v>
-      </c>
-      <c r="E198" s="2">
-        <f>[8]TZData!E18</f>
-        <v>2.2198351455629606</v>
       </c>
       <c r="F198" s="2">
         <f>[8]TZData!F18</f>
@@ -15262,7 +15266,7 @@
         <v>TZ</v>
       </c>
       <c r="J198" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -15279,12 +15283,12 @@
         <v>2.2840431125131442</v>
       </c>
       <c r="D199" s="2">
+        <f>[8]TZData!E19</f>
+        <v>2.4314275692739389</v>
+      </c>
+      <c r="E199" s="2">
         <f>[8]TZData!D19</f>
         <v>1.6349384310884079</v>
-      </c>
-      <c r="E199" s="2">
-        <f>[8]TZData!E19</f>
-        <v>2.4314275692739389</v>
       </c>
       <c r="F199" s="2">
         <f>[8]TZData!F19</f>
@@ -15303,7 +15307,7 @@
         <v>TZ</v>
       </c>
       <c r="J199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -15320,12 +15324,12 @@
         <v>2.4215299684542586</v>
       </c>
       <c r="D200" s="2">
+        <f>[8]TZData!E20</f>
+        <v>2.6652928796913362</v>
+      </c>
+      <c r="E200" s="2">
         <f>[8]TZData!D20</f>
         <v>1.6835627417481474</v>
-      </c>
-      <c r="E200" s="2">
-        <f>[8]TZData!E20</f>
-        <v>2.6652928796913362</v>
       </c>
       <c r="F200" s="2">
         <f>[8]TZData!F20</f>
@@ -15344,7 +15348,7 @@
         <v>TZ</v>
       </c>
       <c r="J200" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -15361,12 +15365,12 @@
         <v>2.5906940063091484</v>
       </c>
       <c r="D201" s="2">
+        <f>[8]TZData!E21</f>
+        <v>2.9149421255699752</v>
+      </c>
+      <c r="E201" s="2">
         <f>[8]TZData!D21</f>
         <v>1.7344852761362637</v>
-      </c>
-      <c r="E201" s="2">
-        <f>[8]TZData!E21</f>
-        <v>2.9149421255699752</v>
       </c>
       <c r="F201" s="2">
         <f>[8]TZData!F21</f>
@@ -15385,7 +15389,7 @@
         <v>TZ</v>
       </c>
       <c r="J201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -15402,12 +15406,12 @@
         <v>2.7564405888538381</v>
       </c>
       <c r="D202" s="2">
+        <f>[8]TZData!E22</f>
+        <v>3.1830059628200633</v>
+      </c>
+      <c r="E202" s="2">
         <f>[8]TZData!D22</f>
         <v>1.7877584689357442</v>
-      </c>
-      <c r="E202" s="2">
-        <f>[8]TZData!E22</f>
-        <v>3.1830059628200633</v>
       </c>
       <c r="F202" s="2">
         <f>[8]TZData!F22</f>
@@ -15426,7 +15430,7 @@
         <v>TZ</v>
       </c>
       <c r="J202" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -15443,11 +15447,11 @@
         <v>1</v>
       </c>
       <c r="D203" s="2">
+        <f>[9]ZMData!E2</f>
+        <v>1</v>
+      </c>
+      <c r="E203" s="2">
         <f>[9]ZMData!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E203" s="2">
-        <f>[9]ZMData!E2</f>
         <v>1</v>
       </c>
       <c r="F203" s="2">
@@ -15467,7 +15471,7 @@
         <v>ZM</v>
       </c>
       <c r="J203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -15484,12 +15488,12 @@
         <v>0.98266767143933687</v>
       </c>
       <c r="D204" s="2">
+        <f>[9]ZMData!E3</f>
+        <v>0.96924639152825121</v>
+      </c>
+      <c r="E204" s="2">
         <f>[9]ZMData!D3</f>
         <v>1.0253504942691336</v>
-      </c>
-      <c r="E204" s="2">
-        <f>[9]ZMData!E3</f>
-        <v>0.96924639152825121</v>
       </c>
       <c r="F204" s="2">
         <f>[9]ZMData!F3</f>
@@ -15508,7 +15512,7 @@
         <v>ZM</v>
       </c>
       <c r="J204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -15525,12 +15529,12 @@
         <v>1.049359457422758</v>
       </c>
       <c r="D205" s="2">
+        <f>[9]ZMData!E4</f>
+        <v>0.95655327482410968</v>
+      </c>
+      <c r="E205" s="2">
         <f>[9]ZMData!D4</f>
         <v>1.0538741702444119</v>
-      </c>
-      <c r="E205" s="2">
-        <f>[9]ZMData!E4</f>
-        <v>0.95655327482410968</v>
       </c>
       <c r="F205" s="2">
         <f>[9]ZMData!F4</f>
@@ -15549,7 +15553,7 @@
         <v>ZM</v>
       </c>
       <c r="J205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -15566,12 +15570,12 @@
         <v>0.95892991710625475</v>
       </c>
       <c r="D206" s="2">
+        <f>[9]ZMData!E5</f>
+        <v>0.93138463770218327</v>
+      </c>
+      <c r="E206" s="2">
         <f>[9]ZMData!D5</f>
         <v>1.097372820247343</v>
-      </c>
-      <c r="E206" s="2">
-        <f>[9]ZMData!E5</f>
-        <v>0.93138463770218327</v>
       </c>
       <c r="F206" s="2">
         <f>[9]ZMData!F5</f>
@@ -15590,7 +15594,7 @@
         <v>ZM</v>
       </c>
       <c r="J206" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -15607,12 +15611,12 @@
         <v>0.93180105501130372</v>
       </c>
       <c r="D207" s="2">
+        <f>[9]ZMData!E6</f>
+        <v>0.91796620004351925</v>
+      </c>
+      <c r="E207" s="2">
         <f>[9]ZMData!D6</f>
         <v>1.1260119681142204</v>
-      </c>
-      <c r="E207" s="2">
-        <f>[9]ZMData!E6</f>
-        <v>0.91796620004351925</v>
       </c>
       <c r="F207" s="2">
         <f>[9]ZMData!F6</f>
@@ -15631,7 +15635,7 @@
         <v>ZM</v>
       </c>
       <c r="J207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -15648,12 +15652,12 @@
         <v>0.99660889223813109</v>
       </c>
       <c r="D208" s="2">
+        <f>[9]ZMData!E7</f>
+        <v>0.91550010879814314</v>
+      </c>
+      <c r="E208" s="2">
         <f>[9]ZMData!D7</f>
         <v>1.2100048801882015</v>
-      </c>
-      <c r="E208" s="2">
-        <f>[9]ZMData!E7</f>
-        <v>0.91550010879814314</v>
       </c>
       <c r="F208" s="2">
         <f>[9]ZMData!F7</f>
@@ -15672,7 +15676,7 @@
         <v>ZM</v>
       </c>
       <c r="J208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -15689,12 +15693,12 @@
         <v>1.0293896006028636</v>
       </c>
       <c r="D209" s="2">
+        <f>[9]ZMData!E8</f>
+        <v>0.92913614274316381</v>
+      </c>
+      <c r="E209" s="2">
         <f>[9]ZMData!D8</f>
         <v>1.2621314345563936</v>
-      </c>
-      <c r="E209" s="2">
-        <f>[9]ZMData!E8</f>
-        <v>0.92913614274316381</v>
       </c>
       <c r="F209" s="2">
         <f>[9]ZMData!F8</f>
@@ -15713,7 +15717,7 @@
         <v>ZM</v>
       </c>
       <c r="J209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -15730,12 +15734,12 @@
         <v>1.0103617181612661</v>
       </c>
       <c r="D210" s="2">
+        <f>[9]ZMData!E9</f>
+        <v>0.96503952999202147</v>
+      </c>
+      <c r="E210" s="2">
         <f>[9]ZMData!D9</f>
         <v>1.3351107294221674</v>
-      </c>
-      <c r="E210" s="2">
-        <f>[9]ZMData!E9</f>
-        <v>0.96503952999202147</v>
       </c>
       <c r="F210" s="2">
         <f>[9]ZMData!F9</f>
@@ -15754,7 +15758,7 @@
         <v>ZM</v>
       </c>
       <c r="J210" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -15771,12 +15775,12 @@
         <v>1.0327807083647325</v>
       </c>
       <c r="D211" s="2">
+        <f>[9]ZMData!E10</f>
+        <v>1.0200913904402698</v>
+      </c>
+      <c r="E211" s="2">
         <f>[9]ZMData!D10</f>
         <v>1.3520695599849992</v>
-      </c>
-      <c r="E211" s="2">
-        <f>[9]ZMData!E10</f>
-        <v>1.0200913904402698</v>
       </c>
       <c r="F211" s="2">
         <f>[9]ZMData!F10</f>
@@ -15795,7 +15799,7 @@
         <v>ZM</v>
       </c>
       <c r="J211" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -15812,12 +15816,12 @@
         <v>1.0697061039939713</v>
       </c>
       <c r="D212" s="2">
+        <f>[9]ZMData!E11</f>
+        <v>1.0180604917676073</v>
+      </c>
+      <c r="E212" s="2">
         <f>[9]ZMData!D11</f>
         <v>1.3869343024968059</v>
-      </c>
-      <c r="E212" s="2">
-        <f>[9]ZMData!E11</f>
-        <v>1.0180604917676073</v>
       </c>
       <c r="F212" s="2">
         <f>[9]ZMData!F11</f>
@@ -15836,7 +15840,7 @@
         <v>ZM</v>
       </c>
       <c r="J212" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -15853,12 +15857,12 @@
         <v>1.1220798794272795</v>
       </c>
       <c r="D213" s="2">
+        <f>[9]ZMData!E12</f>
+        <v>1.0260390222673532</v>
+      </c>
+      <c r="E213" s="2">
         <f>[9]ZMData!D12</f>
         <v>1.3800956827637545</v>
-      </c>
-      <c r="E213" s="2">
-        <f>[9]ZMData!E12</f>
-        <v>1.0260390222673532</v>
       </c>
       <c r="F213" s="2">
         <f>[9]ZMData!F12</f>
@@ -15877,7 +15881,7 @@
         <v>ZM</v>
       </c>
       <c r="J213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -15894,12 +15898,12 @@
         <v>1.1591936699321779</v>
       </c>
       <c r="D214" s="2">
+        <f>[9]ZMData!E13</f>
+        <v>1.0379342859215204</v>
+      </c>
+      <c r="E214" s="2">
         <f>[9]ZMData!D13</f>
         <v>1.4069868616293613</v>
-      </c>
-      <c r="E214" s="2">
-        <f>[9]ZMData!E13</f>
-        <v>1.0379342859215204</v>
       </c>
       <c r="F214" s="2">
         <f>[9]ZMData!F13</f>
@@ -15918,7 +15922,7 @@
         <v>ZM</v>
       </c>
       <c r="J214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -15935,12 +15939,12 @@
         <v>1.2183496608892239</v>
       </c>
       <c r="D215" s="2">
+        <f>[9]ZMData!E14</f>
+        <v>1.0541089432073694</v>
+      </c>
+      <c r="E215" s="2">
         <f>[9]ZMData!D14</f>
         <v>1.4183370070109447</v>
-      </c>
-      <c r="E215" s="2">
-        <f>[9]ZMData!E14</f>
-        <v>1.0541089432073694</v>
       </c>
       <c r="F215" s="2">
         <f>[9]ZMData!F14</f>
@@ -15959,7 +15963,7 @@
         <v>ZM</v>
       </c>
       <c r="J215" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -15976,12 +15980,12 @@
         <v>1.2839110776186888</v>
       </c>
       <c r="D216" s="2">
+        <f>[9]ZMData!E15</f>
+        <v>1.0658591426706319</v>
+      </c>
+      <c r="E216" s="2">
         <f>[9]ZMData!D15</f>
         <v>1.4512934617484352</v>
-      </c>
-      <c r="E216" s="2">
-        <f>[9]ZMData!E15</f>
-        <v>1.0658591426706319</v>
       </c>
       <c r="F216" s="2">
         <f>[9]ZMData!F15</f>
@@ -16000,7 +16004,7 @@
         <v>ZM</v>
       </c>
       <c r="J216" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -16017,12 +16021,12 @@
         <v>1.3524868123587039</v>
       </c>
       <c r="D217" s="2">
+        <f>[9]ZMData!E16</f>
+        <v>1.0818887357655762</v>
+      </c>
+      <c r="E217" s="2">
         <f>[9]ZMData!D16</f>
         <v>1.4644392480131418</v>
-      </c>
-      <c r="E217" s="2">
-        <f>[9]ZMData!E16</f>
-        <v>1.0818887357655762</v>
       </c>
       <c r="F217" s="2">
         <f>[9]ZMData!F16</f>
@@ -16041,7 +16045,7 @@
         <v>ZM</v>
       </c>
       <c r="J217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -16058,12 +16062,12 @@
         <v>1.4365109269027883</v>
       </c>
       <c r="D218" s="2">
+        <f>[9]ZMData!E17</f>
+        <v>1.1066221803147893</v>
+      </c>
+      <c r="E218" s="2">
         <f>[9]ZMData!D17</f>
         <v>1.5012009782976405</v>
-      </c>
-      <c r="E218" s="2">
-        <f>[9]ZMData!E17</f>
-        <v>1.1066221803147893</v>
       </c>
       <c r="F218" s="2">
         <f>[9]ZMData!F17</f>
@@ -16082,7 +16086,7 @@
         <v>ZM</v>
       </c>
       <c r="J218" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -16099,12 +16103,12 @@
         <v>1.5256217030896759</v>
       </c>
       <c r="D219" s="2">
+        <f>[9]ZMData!E18</f>
+        <v>1.1382461739319649</v>
+      </c>
+      <c r="E219" s="2">
         <f>[9]ZMData!D18</f>
         <v>1.5402036401542734</v>
-      </c>
-      <c r="E219" s="2">
-        <f>[9]ZMData!E18</f>
-        <v>1.1382461739319649</v>
       </c>
       <c r="F219" s="2">
         <f>[9]ZMData!F18</f>
@@ -16123,7 +16127,7 @@
         <v>ZM</v>
       </c>
       <c r="J219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -16140,12 +16144,12 @@
         <v>1.6122833458929917</v>
       </c>
       <c r="D220" s="2">
+        <f>[9]ZMData!E19</f>
+        <v>1.1745122216580837</v>
+      </c>
+      <c r="E220" s="2">
         <f>[9]ZMData!D19</f>
         <v>1.5816273273589283</v>
-      </c>
-      <c r="E220" s="2">
-        <f>[9]ZMData!E19</f>
-        <v>1.1745122216580837</v>
       </c>
       <c r="F220" s="2">
         <f>[9]ZMData!F19</f>
@@ -16164,7 +16168,7 @@
         <v>ZM</v>
       </c>
       <c r="J220" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -16181,12 +16185,12 @@
         <v>1.7155237377543331</v>
       </c>
       <c r="D221" s="2">
+        <f>[9]ZMData!E20</f>
+        <v>1.2152027272067889</v>
+      </c>
+      <c r="E221" s="2">
         <f>[9]ZMData!D20</f>
         <v>1.6255938680541184</v>
-      </c>
-      <c r="E221" s="2">
-        <f>[9]ZMData!E20</f>
-        <v>1.2152027272067889</v>
       </c>
       <c r="F221" s="2">
         <f>[9]ZMData!F20</f>
@@ -16205,7 +16209,7 @@
         <v>ZM</v>
       </c>
       <c r="J221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -16222,12 +16226,12 @@
         <v>1.8460813865862848</v>
       </c>
       <c r="D222" s="2">
+        <f>[9]ZMData!E21</f>
+        <v>1.2668455791687823</v>
+      </c>
+      <c r="E222" s="2">
         <f>[9]ZMData!D21</f>
         <v>1.6514864092761714</v>
-      </c>
-      <c r="E222" s="2">
-        <f>[9]ZMData!E21</f>
-        <v>1.2668455791687823</v>
       </c>
       <c r="F222" s="2">
         <f>[9]ZMData!F21</f>
@@ -16246,7 +16250,7 @@
         <v>ZM</v>
       </c>
       <c r="J222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -16263,12 +16267,12 @@
         <v>1.9715523737754332</v>
       </c>
       <c r="D223" s="2">
+        <f>[9]ZMData!E22</f>
+        <v>1.3440197287299631</v>
+      </c>
+      <c r="E223" s="2">
         <f>[9]ZMData!D22</f>
         <v>1.7215693724755974</v>
-      </c>
-      <c r="E223" s="2">
-        <f>[9]ZMData!E22</f>
-        <v>1.3440197287299631</v>
       </c>
       <c r="F223" s="2">
         <f>[9]ZMData!F22</f>
@@ -16287,7 +16291,7 @@
         <v>ZM</v>
       </c>
       <c r="J223" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
